--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_7_4.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_7_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3156145.214478273</v>
+        <v>-3156857.516301316</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058542</v>
+        <v>632041.4518058538</v>
       </c>
     </row>
     <row r="9">
@@ -1212,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2.817899082923868</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="R9" t="n">
-        <v>2.817899082923868</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>172.057233228111</v>
+        <v>172.0572332281109</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>121.4187812826786</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>168.8731344554827</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.86150506240814</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.733281229299</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.36873040538028</v>
       </c>
       <c r="T11" t="n">
-        <v>44.31761724675141</v>
+        <v>44.31761724675135</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>159.748199672699</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>74.29635955450236</v>
       </c>
       <c r="Y11" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.369887371298091</v>
+        <v>9.369887371298034</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>142.9502194268438</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>52.47517038390257</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>6.869455874161009</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S12" t="n">
+        <v>13.44252716693642</v>
+      </c>
+      <c r="T12" t="n">
+        <v>36.82265945242239</v>
+      </c>
+      <c r="U12" t="n">
         <v>188.4979333192472</v>
       </c>
-      <c r="T12" t="n">
-        <v>36.82265945242245</v>
-      </c>
-      <c r="U12" t="n">
-        <v>59.07980534382078</v>
-      </c>
       <c r="V12" t="n">
-        <v>62.50065676233442</v>
+        <v>62.50065676233436</v>
       </c>
       <c r="W12" t="n">
-        <v>88.55631942394376</v>
+        <v>88.55631942394371</v>
       </c>
       <c r="X12" t="n">
-        <v>39.16465028640278</v>
+        <v>39.16465028640272</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.23602198095779</v>
+        <v>151.5788891795112</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28169700256628</v>
+        <v>25.28169700256623</v>
       </c>
       <c r="S13" t="n">
-        <v>57.28978021311273</v>
+        <v>57.28978021311267</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61329429725518</v>
+        <v>45.61329429725512</v>
       </c>
       <c r="U13" t="n">
-        <v>110.5082928154978</v>
+        <v>110.5082928154977</v>
       </c>
       <c r="V13" t="n">
-        <v>66.96075103138207</v>
+        <v>66.96075103138202</v>
       </c>
       <c r="W13" t="n">
-        <v>112.1624429362675</v>
+        <v>112.1624429362674</v>
       </c>
       <c r="X13" t="n">
-        <v>43.7711912551747</v>
+        <v>43.77119125517464</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99300866110059</v>
+        <v>38.99300866110053</v>
       </c>
     </row>
     <row r="14">
@@ -1604,76 +1604,76 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>80.2870262411779</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>168.8731344554827</v>
+      </c>
+      <c r="I14" t="n">
+        <v>62.86150506240814</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>49.36873040538029</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>181.6344501416382</v>
+      </c>
+      <c r="Y14" t="n">
         <v>188.4979333192472</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>188.4979333192472</v>
-      </c>
-      <c r="F14" t="n">
-        <v>188.4979333192472</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>16.73328122929898</v>
-      </c>
-      <c r="S14" t="n">
-        <v>49.36873040538034</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>99.92696803291352</v>
       </c>
     </row>
     <row r="15">
@@ -1686,13 +1686,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.369887371298091</v>
+        <v>9.369887371298034</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.869455874161009</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>134.7198007890776</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>77.37595050111636</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="T15" t="n">
-        <v>36.82265945242245</v>
+        <v>113.1202285804172</v>
       </c>
       <c r="U15" t="n">
-        <v>59.07980534382078</v>
+        <v>59.07980534382072</v>
       </c>
       <c r="V15" t="n">
-        <v>62.50065676233442</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="W15" t="n">
-        <v>88.55631942394376</v>
+        <v>88.55631942394371</v>
       </c>
       <c r="X15" t="n">
-        <v>39.16465028640278</v>
+        <v>39.16465028640272</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.23602198095779</v>
+        <v>45.23602198095773</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28169700256628</v>
+        <v>25.28169700256623</v>
       </c>
       <c r="S16" t="n">
-        <v>57.28978021311273</v>
+        <v>57.28978021311267</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61329429725518</v>
+        <v>45.61329429725512</v>
       </c>
       <c r="U16" t="n">
-        <v>110.5082928154978</v>
+        <v>110.5082928154977</v>
       </c>
       <c r="V16" t="n">
-        <v>66.96075103138207</v>
+        <v>66.96075103138202</v>
       </c>
       <c r="W16" t="n">
-        <v>112.1624429362675</v>
+        <v>112.1624429362674</v>
       </c>
       <c r="X16" t="n">
-        <v>43.7711912551747</v>
+        <v>43.77119125517464</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.99300866110059</v>
+        <v>38.99300866110053</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.63956945084885</v>
+        <v>76.63956945084891</v>
       </c>
       <c r="C17" t="n">
-        <v>52.75782645419434</v>
+        <v>52.7578264541944</v>
       </c>
       <c r="D17" t="n">
-        <v>40.32448871524281</v>
+        <v>40.32448871524286</v>
       </c>
       <c r="E17" t="n">
-        <v>74.03124113465168</v>
+        <v>74.03124113465174</v>
       </c>
       <c r="F17" t="n">
-        <v>105.751578713029</v>
+        <v>105.7515787130291</v>
       </c>
       <c r="G17" t="n">
-        <v>121.390502035664</v>
+        <v>121.3905020356641</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57372768156608</v>
+        <v>49.57372768156614</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.43211268216754</v>
+        <v>23.4321126821676</v>
       </c>
       <c r="W17" t="n">
-        <v>40.44879289878241</v>
+        <v>40.44879289878247</v>
       </c>
       <c r="X17" t="n">
-        <v>62.33504336772165</v>
+        <v>62.33504336772171</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.83789649146541</v>
+        <v>84.83789649146547</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
@@ -1929,10 +1929,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>36.6031227435749</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,19 +1965,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>25.41950479923567</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2157,19 +2157,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>52.47517038390257</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,10 +2202,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.869455874161009</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,16 +2214,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="V21" t="n">
-        <v>136.3588476088483</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>188.4979333192472</v>
+        <v>72.38223604276561</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2397,16 +2397,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>29.38479091276394</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.869455874161009</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2454,13 +2454,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>18.60410351259589</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>133.5366480845496</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52501869147508</v>
+        <v>27.52501869147511</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03224403444722</v>
+        <v>14.03224403444725</v>
       </c>
       <c r="T26" t="n">
-        <v>8.98113087581828</v>
+        <v>8.981130875818309</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66579096864879</v>
+        <v>36.66579096864882</v>
       </c>
       <c r="V26" t="n">
         <v>107.3950330851511</v>
       </c>
       <c r="W26" t="n">
-        <v>124.4117133017659</v>
+        <v>124.411713301766</v>
       </c>
       <c r="X26" t="n">
         <v>146.2979637707052</v>
       </c>
       <c r="Y26" t="n">
-        <v>168.8008168944489</v>
+        <v>168.800816894449</v>
       </c>
     </row>
     <row r="27">
@@ -2634,13 +2634,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>37.69699343313771</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T27" t="n">
-        <v>1.486173081489318</v>
+        <v>1.486173081489347</v>
       </c>
       <c r="U27" t="n">
-        <v>227.0645047263947</v>
+        <v>23.74331897288768</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>53.21983305301066</v>
       </c>
       <c r="X27" t="n">
-        <v>3.828163915469645</v>
+        <v>3.828163915469673</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.899535610024657</v>
+        <v>9.899535610024685</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.9532938421796</v>
+        <v>21.95329384217963</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27680792632205</v>
+        <v>10.27680792632208</v>
       </c>
       <c r="U28" t="n">
-        <v>75.17180644456465</v>
+        <v>75.17180644456468</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62426466044894</v>
+        <v>31.62426466044897</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82595656533437</v>
+        <v>76.82595656533439</v>
       </c>
       <c r="X28" t="n">
-        <v>8.434704884241569</v>
+        <v>8.434704884241597</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.656522290167459</v>
+        <v>3.656522290167487</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>133.5366480845496</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52501869147507</v>
+        <v>27.5250186914751</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03224403444721</v>
+        <v>14.03224403444724</v>
       </c>
       <c r="T29" t="n">
-        <v>8.981130875818293</v>
+        <v>8.981130875818321</v>
       </c>
       <c r="U29" t="n">
-        <v>36.66579096864879</v>
+        <v>36.66579096864882</v>
       </c>
       <c r="V29" t="n">
         <v>107.3950330851511</v>
       </c>
       <c r="W29" t="n">
-        <v>124.4117133017659</v>
+        <v>124.411713301766</v>
       </c>
       <c r="X29" t="n">
         <v>146.2979637707052</v>
       </c>
       <c r="Y29" t="n">
-        <v>168.8008168944489</v>
+        <v>168.800816894449</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>52.47517038390257</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T30" t="n">
-        <v>1.486173081489318</v>
+        <v>49.95082364132725</v>
       </c>
       <c r="U30" t="n">
-        <v>200.5559333421272</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>27.16417039140131</v>
       </c>
       <c r="W30" t="n">
-        <v>53.21983305301063</v>
+        <v>53.21983305301066</v>
       </c>
       <c r="X30" t="n">
-        <v>3.828163915469645</v>
+        <v>3.828163915469673</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.899535610024657</v>
+        <v>9.899535610024685</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.9532938421796</v>
+        <v>21.95329384217963</v>
       </c>
       <c r="T31" t="n">
-        <v>10.27680792632205</v>
+        <v>10.27680792632208</v>
       </c>
       <c r="U31" t="n">
-        <v>75.17180644456465</v>
+        <v>75.17180644456468</v>
       </c>
       <c r="V31" t="n">
-        <v>31.62426466044894</v>
+        <v>31.62426466044897</v>
       </c>
       <c r="W31" t="n">
-        <v>76.82595656533437</v>
+        <v>76.82595656533439</v>
       </c>
       <c r="X31" t="n">
-        <v>8.434704884241569</v>
+        <v>8.434704884241597</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.656522290167459</v>
+        <v>3.656522290167487</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>159.7747799869682</v>
+        <v>159.7747799869681</v>
       </c>
       <c r="C32" t="n">
-        <v>135.8930369903137</v>
+        <v>135.8930369903136</v>
       </c>
       <c r="D32" t="n">
         <v>123.4596992513621</v>
       </c>
       <c r="E32" t="n">
-        <v>157.166451670771</v>
+        <v>157.1664516707709</v>
       </c>
       <c r="F32" t="n">
         <v>188.8867892491483</v>
       </c>
       <c r="G32" t="n">
-        <v>204.5257125717834</v>
+        <v>204.5257125717833</v>
       </c>
       <c r="H32" t="n">
-        <v>132.7089382176854</v>
+        <v>132.7089382176853</v>
       </c>
       <c r="I32" t="n">
-        <v>26.6973088246109</v>
+        <v>26.69730882461081</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.20453416758303</v>
+        <v>13.20453416758295</v>
       </c>
       <c r="T32" t="n">
-        <v>8.153421008954098</v>
+        <v>8.153421008954012</v>
       </c>
       <c r="U32" t="n">
-        <v>35.83808110178461</v>
+        <v>35.83808110178452</v>
       </c>
       <c r="V32" t="n">
-        <v>106.5673232182869</v>
+        <v>106.5673232182868</v>
       </c>
       <c r="W32" t="n">
         <v>123.5840034349017</v>
       </c>
       <c r="X32" t="n">
-        <v>145.470253903841</v>
+        <v>145.4702539038409</v>
       </c>
       <c r="Y32" t="n">
         <v>167.9731070275847</v>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>65.04276855772554</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>6.869455874161009</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.6584632146251357</v>
+        <v>0.6584632146250504</v>
       </c>
       <c r="U33" t="n">
-        <v>222.6781784528262</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>26.33646052453702</v>
       </c>
       <c r="W33" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>3.000454048605462</v>
+        <v>3.000454048605377</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.071825743160474</v>
+        <v>9.071825743160389</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.12558397531542</v>
+        <v>21.12558397531533</v>
       </c>
       <c r="T34" t="n">
-        <v>9.449098059457866</v>
+        <v>9.44909805945778</v>
       </c>
       <c r="U34" t="n">
-        <v>74.34409657770047</v>
+        <v>74.34409657770038</v>
       </c>
       <c r="V34" t="n">
-        <v>30.79655479358476</v>
+        <v>30.79655479358468</v>
       </c>
       <c r="W34" t="n">
-        <v>75.99824669847018</v>
+        <v>75.9982466984701</v>
       </c>
       <c r="X34" t="n">
-        <v>7.606995017377386</v>
+        <v>7.606995017377301</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.828812423303276</v>
+        <v>2.828812423303191</v>
       </c>
     </row>
     <row r="35">
@@ -3345,13 +3345,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>52.47517038390257</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.888178603479719</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3396,16 +3396,16 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>71.77165714269537</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>52.47517038390257</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3624,28 +3624,28 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.966806590128125</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>57.14889208281889</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>140.6248581410962</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3861,28 +3861,28 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.869455874161009</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U42" t="n">
-        <v>18.09600701974663</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>25.69481436153555</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.140772277173706</v>
+        <v>9.14077227717371</v>
       </c>
       <c r="V44" t="n">
         <v>79.87001439367597</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>76.36558332328595</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4104,19 +4104,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T45" t="n">
-        <v>87.23663793203734</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>25.69481436153555</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4802,43 +4802,43 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="J8" t="n">
-        <v>0.384556269860207</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="K8" t="n">
-        <v>0.384556269860207</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="L8" t="n">
-        <v>0.384556269860207</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="M8" t="n">
-        <v>3.551813413473549</v>
+        <v>3.42319711481442</v>
       </c>
       <c r="N8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="O8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="P8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="R8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="S8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="T8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="U8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="V8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="W8" t="n">
         <v>6.719070557086891</v>
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.487505264143985</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="D9" t="n">
         <v>0.2559399712010781</v>
@@ -4884,19 +4884,19 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.42319711481442</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.462484272827225</v>
       </c>
       <c r="M9" t="n">
-        <v>3.295227129213883</v>
+        <v>9.629741416440567</v>
       </c>
       <c r="N9" t="n">
-        <v>6.462484272827225</v>
+        <v>9.629741416440567</v>
       </c>
       <c r="O9" t="n">
-        <v>9.629741416440567</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="P9" t="n">
         <v>12.79699856005391</v>
@@ -4905,28 +4905,28 @@
         <v>9.565433267111001</v>
       </c>
       <c r="R9" t="n">
-        <v>6.719070557086891</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="S9" t="n">
-        <v>6.719070557086891</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="T9" t="n">
-        <v>6.719070557086891</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="U9" t="n">
-        <v>6.719070557086891</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="V9" t="n">
-        <v>6.719070557086891</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="W9" t="n">
-        <v>6.719070557086891</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="X9" t="n">
-        <v>6.719070557086891</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.487505264143985</v>
+        <v>3.102302681225188</v>
       </c>
     </row>
     <row r="10">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>501.9222062110317</v>
+        <v>422.9504131968546</v>
       </c>
       <c r="C11" t="n">
-        <v>328.1270211321317</v>
+        <v>249.1552281179548</v>
       </c>
       <c r="D11" t="n">
-        <v>328.1270211321317</v>
+        <v>249.1552281179548</v>
       </c>
       <c r="E11" t="n">
-        <v>328.1270211321317</v>
+        <v>249.1552281179548</v>
       </c>
       <c r="F11" t="n">
-        <v>137.7250682844071</v>
+        <v>249.1552281179548</v>
       </c>
       <c r="G11" t="n">
-        <v>15.07983466553978</v>
+        <v>249.1552281179548</v>
       </c>
       <c r="H11" t="n">
-        <v>15.07983466553978</v>
+        <v>78.57630442554802</v>
       </c>
       <c r="I11" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="J11" t="n">
-        <v>115.4328134021288</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K11" t="n">
-        <v>285.1396746888281</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="L11" t="n">
-        <v>471.7526286748828</v>
+        <v>201.6927886515946</v>
       </c>
       <c r="M11" t="n">
-        <v>552.6145277618302</v>
+        <v>388.3057426376494</v>
       </c>
       <c r="N11" t="n">
-        <v>627.9424208975227</v>
+        <v>574.9186966237041</v>
       </c>
       <c r="O11" t="n">
-        <v>662.1630555901904</v>
+        <v>753.991733276989</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4395714324995</v>
+        <v>753.991733276989</v>
       </c>
       <c r="Q11" t="n">
         <v>753.991733276989</v>
       </c>
       <c r="R11" t="n">
-        <v>737.0894290049698</v>
+        <v>753.991733276989</v>
       </c>
       <c r="S11" t="n">
-        <v>737.0894290049698</v>
+        <v>704.1243288271098</v>
       </c>
       <c r="T11" t="n">
-        <v>692.3241590587562</v>
+        <v>659.3590588808963</v>
       </c>
       <c r="U11" t="n">
-        <v>692.3241590587562</v>
+        <v>659.3590588808963</v>
       </c>
       <c r="V11" t="n">
-        <v>692.3241590587562</v>
+        <v>659.3590588808963</v>
       </c>
       <c r="W11" t="n">
-        <v>692.3241590587562</v>
+        <v>497.9972410296853</v>
       </c>
       <c r="X11" t="n">
-        <v>692.3241590587562</v>
+        <v>422.9504131968546</v>
       </c>
       <c r="Y11" t="n">
-        <v>501.9222062110317</v>
+        <v>422.9504131968546</v>
       </c>
     </row>
     <row r="12">
@@ -5094,40 +5094,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>221.9437510110393</v>
+        <v>24.54436736382062</v>
       </c>
       <c r="C12" t="n">
-        <v>212.4792183127584</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D12" t="n">
-        <v>212.4792183127584</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E12" t="n">
-        <v>212.4792183127584</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F12" t="n">
-        <v>212.4792183127584</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G12" t="n">
-        <v>68.08505727554238</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H12" t="n">
-        <v>68.08505727554238</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I12" t="n">
-        <v>68.08505727554238</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J12" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="K12" t="n">
-        <v>53.04316068142009</v>
+        <v>53.04316068142019</v>
       </c>
       <c r="L12" t="n">
-        <v>170.3760798097943</v>
+        <v>170.3760798097944</v>
       </c>
       <c r="M12" t="n">
-        <v>352.0527264137997</v>
+        <v>352.0527264137999</v>
       </c>
       <c r="N12" t="n">
         <v>538.6656803998546</v>
@@ -5142,28 +5142,28 @@
         <v>747.0528889596546</v>
       </c>
       <c r="R12" t="n">
-        <v>747.0528889596546</v>
+        <v>610.9722821020005</v>
       </c>
       <c r="S12" t="n">
-        <v>556.6509361119302</v>
+        <v>597.3939718323677</v>
       </c>
       <c r="T12" t="n">
-        <v>519.4563306044328</v>
+        <v>560.1993663248703</v>
       </c>
       <c r="U12" t="n">
-        <v>459.7797595500683</v>
+        <v>369.7974134771458</v>
       </c>
       <c r="V12" t="n">
-        <v>396.6477830224578</v>
+        <v>306.6654369495354</v>
       </c>
       <c r="W12" t="n">
-        <v>307.1969553215045</v>
+        <v>217.2146092485821</v>
       </c>
       <c r="X12" t="n">
-        <v>267.6367025069562</v>
+        <v>177.6543564340339</v>
       </c>
       <c r="Y12" t="n">
-        <v>221.9437510110393</v>
+        <v>24.54436736382062</v>
       </c>
     </row>
     <row r="13">
@@ -5179,67 +5179,67 @@
         <v>15.07983466553978</v>
       </c>
       <c r="D13" t="n">
-        <v>15.07983466553978</v>
+        <v>47.71579242887339</v>
       </c>
       <c r="E13" t="n">
-        <v>15.07983466553978</v>
+        <v>83.82319414030785</v>
       </c>
       <c r="F13" t="n">
-        <v>15.07983466553978</v>
+        <v>122.6523622555829</v>
       </c>
       <c r="G13" t="n">
-        <v>15.07983466553978</v>
+        <v>132.0053765892391</v>
       </c>
       <c r="H13" t="n">
-        <v>15.07983466553978</v>
+        <v>132.0053765892391</v>
       </c>
       <c r="I13" t="n">
-        <v>15.07983466553978</v>
+        <v>132.0053765892391</v>
       </c>
       <c r="J13" t="n">
-        <v>72.40940466999707</v>
+        <v>132.0053765892391</v>
       </c>
       <c r="K13" t="n">
-        <v>182.4165058437362</v>
+        <v>132.0053765892391</v>
       </c>
       <c r="L13" t="n">
-        <v>326.9529892695763</v>
+        <v>276.5418600150793</v>
       </c>
       <c r="M13" t="n">
-        <v>326.9529892695763</v>
+        <v>276.5418600150793</v>
       </c>
       <c r="N13" t="n">
-        <v>486.964814985525</v>
+        <v>436.5536857310281</v>
       </c>
       <c r="O13" t="n">
-        <v>486.964814985525</v>
+        <v>470.2946957351826</v>
       </c>
       <c r="P13" t="n">
-        <v>520.7166611426679</v>
+        <v>470.2946957351826</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.7166611426679</v>
+        <v>520.7166611426675</v>
       </c>
       <c r="R13" t="n">
-        <v>495.1795934633081</v>
+        <v>495.1795934633077</v>
       </c>
       <c r="S13" t="n">
-        <v>437.311128601578</v>
+        <v>437.3111286015777</v>
       </c>
       <c r="T13" t="n">
-        <v>391.2370939578859</v>
+        <v>391.2370939578856</v>
       </c>
       <c r="U13" t="n">
-        <v>279.6125557604134</v>
+        <v>279.6125557604132</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9754335064921</v>
+        <v>211.9754335064919</v>
       </c>
       <c r="W13" t="n">
-        <v>98.68003660117139</v>
+        <v>98.68003660117128</v>
       </c>
       <c r="X13" t="n">
-        <v>54.46671210099492</v>
+        <v>54.46671210099486</v>
       </c>
       <c r="Y13" t="n">
         <v>15.07983466553978</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>395.8837403609888</v>
+        <v>330.2532344221749</v>
       </c>
       <c r="C14" t="n">
-        <v>395.8837403609888</v>
+        <v>330.2532344221749</v>
       </c>
       <c r="D14" t="n">
-        <v>395.8837403609888</v>
+        <v>330.2532344221749</v>
       </c>
       <c r="E14" t="n">
-        <v>205.4817875132643</v>
+        <v>249.1552281179548</v>
       </c>
       <c r="F14" t="n">
-        <v>15.07983466553978</v>
+        <v>249.1552281179548</v>
       </c>
       <c r="G14" t="n">
-        <v>15.07983466553978</v>
+        <v>249.1552281179548</v>
       </c>
       <c r="H14" t="n">
-        <v>15.07983466553978</v>
+        <v>78.57630442554802</v>
       </c>
       <c r="I14" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="J14" t="n">
-        <v>115.4328134021288</v>
+        <v>115.4328134021289</v>
       </c>
       <c r="K14" t="n">
-        <v>285.1396746888281</v>
+        <v>115.4328134021289</v>
       </c>
       <c r="L14" t="n">
-        <v>471.7526286748828</v>
+        <v>162.1536558828891</v>
       </c>
       <c r="M14" t="n">
-        <v>552.6145277618302</v>
+        <v>348.7666098689439</v>
       </c>
       <c r="N14" t="n">
-        <v>632.2189367398317</v>
+        <v>479.8266174464446</v>
       </c>
       <c r="O14" t="n">
-        <v>666.4395714324995</v>
+        <v>666.4395714324994</v>
       </c>
       <c r="P14" t="n">
-        <v>666.4395714324995</v>
+        <v>666.4395714324994</v>
       </c>
       <c r="Q14" t="n">
         <v>753.991733276989</v>
       </c>
       <c r="R14" t="n">
-        <v>737.0894290049697</v>
+        <v>753.991733276989</v>
       </c>
       <c r="S14" t="n">
-        <v>687.2220245550906</v>
+        <v>704.1243288271098</v>
       </c>
       <c r="T14" t="n">
-        <v>687.2220245550906</v>
+        <v>704.1243288271098</v>
       </c>
       <c r="U14" t="n">
-        <v>687.2220245550906</v>
+        <v>704.1243288271098</v>
       </c>
       <c r="V14" t="n">
-        <v>687.2220245550906</v>
+        <v>704.1243288271098</v>
       </c>
       <c r="W14" t="n">
-        <v>687.2220245550906</v>
+        <v>704.1243288271098</v>
       </c>
       <c r="X14" t="n">
-        <v>687.2220245550906</v>
+        <v>520.6551872698994</v>
       </c>
       <c r="Y14" t="n">
-        <v>586.2856932087133</v>
+        <v>330.2532344221749</v>
       </c>
     </row>
     <row r="15">
@@ -5331,13 +5331,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>198.1075712424062</v>
+        <v>24.54436736382062</v>
       </c>
       <c r="C15" t="n">
-        <v>188.6430385441253</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D15" t="n">
-        <v>188.6430385441253</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E15" t="n">
         <v>15.07983466553978</v>
@@ -5358,49 +5358,49 @@
         <v>15.07983466553978</v>
       </c>
       <c r="K15" t="n">
-        <v>53.04316068142018</v>
+        <v>53.04316068142012</v>
       </c>
       <c r="L15" t="n">
         <v>170.3760798097943</v>
       </c>
       <c r="M15" t="n">
-        <v>352.0527264137998</v>
+        <v>352.0527264137997</v>
       </c>
       <c r="N15" t="n">
-        <v>538.6656803998546</v>
+        <v>538.6656803998545</v>
       </c>
       <c r="O15" t="n">
-        <v>670.3666200188891</v>
+        <v>670.366620018889</v>
       </c>
       <c r="P15" t="n">
         <v>753.991733276989</v>
       </c>
       <c r="Q15" t="n">
-        <v>747.0528889596546</v>
+        <v>753.991733276989</v>
       </c>
       <c r="R15" t="n">
-        <v>610.9722821020005</v>
+        <v>753.991733276989</v>
       </c>
       <c r="S15" t="n">
-        <v>532.8147563432971</v>
+        <v>563.5897804292645</v>
       </c>
       <c r="T15" t="n">
-        <v>495.6201508357997</v>
+        <v>449.3269232773279</v>
       </c>
       <c r="U15" t="n">
-        <v>435.9435797814352</v>
+        <v>389.6503522229635</v>
       </c>
       <c r="V15" t="n">
-        <v>372.8116032538247</v>
+        <v>199.248399375239</v>
       </c>
       <c r="W15" t="n">
-        <v>283.3607755528714</v>
+        <v>109.7975716742857</v>
       </c>
       <c r="X15" t="n">
-        <v>243.8005227383232</v>
+        <v>70.23731885973753</v>
       </c>
       <c r="Y15" t="n">
-        <v>198.1075712424062</v>
+        <v>24.54436736382062</v>
       </c>
     </row>
     <row r="16">
@@ -5422,61 +5422,61 @@
         <v>15.07983466553978</v>
       </c>
       <c r="F16" t="n">
-        <v>15.07983466553978</v>
+        <v>53.9090027808148</v>
       </c>
       <c r="G16" t="n">
-        <v>15.07983466553978</v>
+        <v>53.9090027808148</v>
       </c>
       <c r="H16" t="n">
-        <v>15.07983466553978</v>
+        <v>53.9090027808148</v>
       </c>
       <c r="I16" t="n">
-        <v>15.07983466553978</v>
+        <v>53.9090027808148</v>
       </c>
       <c r="J16" t="n">
-        <v>15.07983466553978</v>
+        <v>53.9090027808148</v>
       </c>
       <c r="K16" t="n">
-        <v>15.07983466553978</v>
+        <v>163.9161039545539</v>
       </c>
       <c r="L16" t="n">
-        <v>159.6163180913799</v>
+        <v>308.4525873803941</v>
       </c>
       <c r="M16" t="n">
-        <v>159.6163180913799</v>
+        <v>308.4525873803941</v>
       </c>
       <c r="N16" t="n">
-        <v>319.6281438073286</v>
+        <v>468.4644130963428</v>
       </c>
       <c r="O16" t="n">
-        <v>351.8217271348923</v>
+        <v>468.4644130963428</v>
       </c>
       <c r="P16" t="n">
-        <v>470.2946957351831</v>
+        <v>520.7166611426675</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.7166611426679</v>
+        <v>520.7166611426675</v>
       </c>
       <c r="R16" t="n">
-        <v>495.1795934633081</v>
+        <v>495.1795934633077</v>
       </c>
       <c r="S16" t="n">
-        <v>437.311128601578</v>
+        <v>437.3111286015777</v>
       </c>
       <c r="T16" t="n">
-        <v>391.2370939578859</v>
+        <v>391.2370939578856</v>
       </c>
       <c r="U16" t="n">
-        <v>279.6125557604134</v>
+        <v>279.6125557604132</v>
       </c>
       <c r="V16" t="n">
-        <v>211.9754335064921</v>
+        <v>211.9754335064919</v>
       </c>
       <c r="W16" t="n">
-        <v>98.68003660117139</v>
+        <v>98.68003660117128</v>
       </c>
       <c r="X16" t="n">
-        <v>54.46671210099492</v>
+        <v>54.46671210099486</v>
       </c>
       <c r="Y16" t="n">
         <v>15.07983466553978</v>
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3923242961951</v>
+        <v>463.3923242961948</v>
       </c>
       <c r="C17" t="n">
         <v>410.1015905040795</v>
@@ -5498,52 +5498,52 @@
         <v>369.3697837210059</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5907522718621</v>
+        <v>294.5907522718627</v>
       </c>
       <c r="F17" t="n">
-        <v>187.770975794055</v>
+        <v>187.7709757940555</v>
       </c>
       <c r="G17" t="n">
-        <v>65.15430707116209</v>
+        <v>65.15430707116215</v>
       </c>
       <c r="H17" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="I17" t="n">
-        <v>70.95335735993314</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J17" t="n">
-        <v>225.0325002150138</v>
+        <v>201.6927886515946</v>
       </c>
       <c r="K17" t="n">
-        <v>225.0325002150138</v>
+        <v>341.8780393769629</v>
       </c>
       <c r="L17" t="n">
-        <v>271.753342695774</v>
+        <v>388.5988818577231</v>
       </c>
       <c r="M17" t="n">
-        <v>352.6152417827213</v>
+        <v>575.2118358437779</v>
       </c>
       <c r="N17" t="n">
-        <v>427.9431349184138</v>
+        <v>650.5397289794703</v>
       </c>
       <c r="O17" t="n">
-        <v>462.1637696110816</v>
+        <v>684.7603636721381</v>
       </c>
       <c r="P17" t="n">
-        <v>462.1637696110816</v>
+        <v>684.7603636721381</v>
       </c>
       <c r="Q17" t="n">
-        <v>462.1637696110816</v>
+        <v>684.7603636721381</v>
       </c>
       <c r="R17" t="n">
-        <v>563.7042339002531</v>
+        <v>684.7603636721381</v>
       </c>
       <c r="S17" t="n">
-        <v>632.935603505104</v>
+        <v>753.991733276989</v>
       </c>
       <c r="T17" t="n">
-        <v>707.1675751369976</v>
+        <v>753.991733276989</v>
       </c>
       <c r="U17" t="n">
         <v>753.991733276989</v>
@@ -5552,13 +5552,13 @@
         <v>730.3229325879306</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4655660235042</v>
+        <v>689.4655660235039</v>
       </c>
       <c r="X17" t="n">
-        <v>626.5008757530783</v>
+        <v>626.5008757530779</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.806030812204</v>
+        <v>540.8060308122037</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>575.4558803500538</v>
+        <v>204.4921089325761</v>
       </c>
       <c r="C18" t="n">
-        <v>386.0436060830175</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D18" t="n">
-        <v>386.0436060830175</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E18" t="n">
-        <v>212.480402204432</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F18" t="n">
-        <v>52.05268592167604</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G18" t="n">
-        <v>52.05268592167604</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H18" t="n">
-        <v>52.05268592167604</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I18" t="n">
-        <v>52.05268592167604</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J18" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="K18" t="n">
-        <v>53.04316068142019</v>
+        <v>53.04316068142012</v>
       </c>
       <c r="L18" t="n">
-        <v>170.3760798097944</v>
+        <v>170.3760798097943</v>
       </c>
       <c r="M18" t="n">
-        <v>352.0527264137999</v>
+        <v>352.0527264137997</v>
       </c>
       <c r="N18" t="n">
-        <v>538.6656803998546</v>
+        <v>538.6656803998545</v>
       </c>
       <c r="O18" t="n">
         <v>670.366620018889</v>
@@ -5613,31 +5613,31 @@
         <v>753.991733276989</v>
       </c>
       <c r="Q18" t="n">
-        <v>753.991733276989</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="R18" t="n">
-        <v>753.991733276989</v>
+        <v>610.9722821020005</v>
       </c>
       <c r="S18" t="n">
-        <v>753.991733276989</v>
+        <v>420.570329254276</v>
       </c>
       <c r="T18" t="n">
-        <v>753.991733276989</v>
+        <v>230.1683764065515</v>
       </c>
       <c r="U18" t="n">
-        <v>753.991733276989</v>
+        <v>204.4921089325761</v>
       </c>
       <c r="V18" t="n">
-        <v>753.991733276989</v>
+        <v>204.4921089325761</v>
       </c>
       <c r="W18" t="n">
-        <v>753.991733276989</v>
+        <v>204.4921089325761</v>
       </c>
       <c r="X18" t="n">
-        <v>753.991733276989</v>
+        <v>204.4921089325761</v>
       </c>
       <c r="Y18" t="n">
-        <v>753.991733276989</v>
+        <v>204.4921089325761</v>
       </c>
     </row>
     <row r="19">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3923242961939</v>
+        <v>463.3923242961944</v>
       </c>
       <c r="C20" t="n">
-        <v>410.1015905040783</v>
+        <v>410.1015905040788</v>
       </c>
       <c r="D20" t="n">
-        <v>369.369783721005</v>
+        <v>369.3697837210051</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5907522718617</v>
+        <v>294.5907522718619</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7709757940552</v>
+        <v>187.7709757940549</v>
       </c>
       <c r="G20" t="n">
         <v>65.15430707116215</v>
@@ -5747,55 +5747,55 @@
         <v>15.07983466553978</v>
       </c>
       <c r="I20" t="n">
-        <v>70.95335735993308</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J20" t="n">
-        <v>225.0325002150139</v>
+        <v>201.6927886515946</v>
       </c>
       <c r="K20" t="n">
-        <v>225.0325002150139</v>
+        <v>388.3057426376494</v>
       </c>
       <c r="L20" t="n">
-        <v>271.7533426957741</v>
+        <v>563.5813063616814</v>
       </c>
       <c r="M20" t="n">
-        <v>352.6152417827215</v>
+        <v>644.4432054486288</v>
       </c>
       <c r="N20" t="n">
-        <v>427.9431349184139</v>
+        <v>719.7710985843212</v>
       </c>
       <c r="O20" t="n">
-        <v>462.1637696110817</v>
+        <v>753.991733276989</v>
       </c>
       <c r="P20" t="n">
-        <v>462.1637696110817</v>
+        <v>753.991733276989</v>
       </c>
       <c r="Q20" t="n">
-        <v>462.1637696110817</v>
+        <v>753.991733276989</v>
       </c>
       <c r="R20" t="n">
-        <v>563.7042339002531</v>
+        <v>753.991733276989</v>
       </c>
       <c r="S20" t="n">
-        <v>632.935603505104</v>
+        <v>753.991733276989</v>
       </c>
       <c r="T20" t="n">
-        <v>707.1675751369976</v>
+        <v>753.991733276989</v>
       </c>
       <c r="U20" t="n">
         <v>753.991733276989</v>
       </c>
       <c r="V20" t="n">
-        <v>730.3229325879302</v>
+        <v>730.3229325879306</v>
       </c>
       <c r="W20" t="n">
-        <v>689.4655660235032</v>
+        <v>689.4655660235039</v>
       </c>
       <c r="X20" t="n">
-        <v>626.5008757530773</v>
+        <v>626.5008757530777</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.8060308122029</v>
+        <v>540.8060308122034</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>228.5127735582983</v>
+        <v>175.859950904508</v>
       </c>
       <c r="C21" t="n">
-        <v>228.5127735582983</v>
+        <v>175.859950904508</v>
       </c>
       <c r="D21" t="n">
-        <v>228.5127735582983</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E21" t="n">
-        <v>228.5127735582983</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F21" t="n">
-        <v>68.08505727554238</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G21" t="n">
-        <v>68.08505727554238</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H21" t="n">
-        <v>68.08505727554238</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I21" t="n">
-        <v>68.08505727554238</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J21" t="n">
         <v>15.07983466553978</v>
@@ -5844,37 +5844,37 @@
         <v>538.6656803998546</v>
       </c>
       <c r="O21" t="n">
-        <v>670.366620018889</v>
+        <v>670.3666200188891</v>
       </c>
       <c r="P21" t="n">
-        <v>753.991733276989</v>
+        <v>753.9917332769891</v>
       </c>
       <c r="Q21" t="n">
-        <v>747.0528889596546</v>
+        <v>753.9917332769891</v>
       </c>
       <c r="R21" t="n">
-        <v>747.0528889596546</v>
+        <v>617.9111264193349</v>
       </c>
       <c r="S21" t="n">
-        <v>747.0528889596546</v>
+        <v>617.9111264193349</v>
       </c>
       <c r="T21" t="n">
-        <v>747.0528889596546</v>
+        <v>617.9111264193349</v>
       </c>
       <c r="U21" t="n">
-        <v>747.0528889596546</v>
+        <v>427.5091735716104</v>
       </c>
       <c r="V21" t="n">
-        <v>609.3166792537472</v>
+        <v>427.5091735716104</v>
       </c>
       <c r="W21" t="n">
-        <v>418.9147264060228</v>
+        <v>427.5091735716104</v>
       </c>
       <c r="X21" t="n">
-        <v>228.5127735582983</v>
+        <v>354.3958038314431</v>
       </c>
       <c r="Y21" t="n">
-        <v>228.5127735582983</v>
+        <v>354.3958038314431</v>
       </c>
     </row>
     <row r="22">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3923242961946</v>
+        <v>463.3923242961941</v>
       </c>
       <c r="C23" t="n">
-        <v>410.101590504079</v>
+        <v>410.1015905040786</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3697837210054</v>
+        <v>369.3697837210052</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5907522718622</v>
+        <v>294.5907522718619</v>
       </c>
       <c r="F23" t="n">
-        <v>187.770975794055</v>
+        <v>187.7709757940549</v>
       </c>
       <c r="G23" t="n">
         <v>65.15430707116215</v>
@@ -5984,55 +5984,55 @@
         <v>15.07983466553978</v>
       </c>
       <c r="I23" t="n">
-        <v>70.95335735993308</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J23" t="n">
-        <v>151.4597257022887</v>
+        <v>201.6927886515946</v>
       </c>
       <c r="K23" t="n">
-        <v>151.4597257022887</v>
+        <v>302.7363807437331</v>
       </c>
       <c r="L23" t="n">
-        <v>198.1805681830489</v>
+        <v>489.3493347297879</v>
       </c>
       <c r="M23" t="n">
-        <v>384.7935221691037</v>
+        <v>570.2112338167352</v>
       </c>
       <c r="N23" t="n">
-        <v>571.4064761551584</v>
+        <v>645.5391269524276</v>
       </c>
       <c r="O23" t="n">
-        <v>605.6271108478262</v>
+        <v>679.7597616450954</v>
       </c>
       <c r="P23" t="n">
-        <v>605.6271108478262</v>
+        <v>679.7597616450954</v>
       </c>
       <c r="Q23" t="n">
-        <v>605.6271108478262</v>
+        <v>679.7597616450954</v>
       </c>
       <c r="R23" t="n">
-        <v>707.1675751369976</v>
+        <v>679.7597616450954</v>
       </c>
       <c r="S23" t="n">
-        <v>707.1675751369976</v>
+        <v>679.7597616450954</v>
       </c>
       <c r="T23" t="n">
-        <v>707.1675751369976</v>
+        <v>753.991733276989</v>
       </c>
       <c r="U23" t="n">
         <v>753.991733276989</v>
       </c>
       <c r="V23" t="n">
-        <v>730.3229325879307</v>
+        <v>730.3229325879304</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4655660235039</v>
+        <v>689.4655660235035</v>
       </c>
       <c r="X23" t="n">
-        <v>626.5008757530779</v>
+        <v>626.5008757530775</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.8060308122036</v>
+        <v>540.8060308122032</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>568.5170360327197</v>
+        <v>175.859950904508</v>
       </c>
       <c r="C24" t="n">
-        <v>379.1047617656834</v>
+        <v>175.859950904508</v>
       </c>
       <c r="D24" t="n">
-        <v>218.3246455267152</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E24" t="n">
-        <v>44.76144164812962</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F24" t="n">
         <v>15.07983466553978</v>
@@ -6066,52 +6066,52 @@
         <v>15.07983466553978</v>
       </c>
       <c r="J24" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553971</v>
       </c>
       <c r="K24" t="n">
-        <v>53.04316068142018</v>
+        <v>53.04316068142012</v>
       </c>
       <c r="L24" t="n">
         <v>170.3760798097943</v>
       </c>
       <c r="M24" t="n">
-        <v>352.0527264137998</v>
+        <v>352.0527264137997</v>
       </c>
       <c r="N24" t="n">
-        <v>538.6656803998546</v>
+        <v>538.6656803998545</v>
       </c>
       <c r="O24" t="n">
-        <v>670.3666200188891</v>
+        <v>670.366620018889</v>
       </c>
       <c r="P24" t="n">
-        <v>753.9917332769891</v>
+        <v>753.991733276989</v>
       </c>
       <c r="Q24" t="n">
-        <v>747.0528889596548</v>
+        <v>753.991733276989</v>
       </c>
       <c r="R24" t="n">
-        <v>747.0528889596548</v>
+        <v>753.991733276989</v>
       </c>
       <c r="S24" t="n">
-        <v>747.0528889596548</v>
+        <v>753.991733276989</v>
       </c>
       <c r="T24" t="n">
-        <v>747.0528889596548</v>
+        <v>753.991733276989</v>
       </c>
       <c r="U24" t="n">
-        <v>747.0528889596548</v>
+        <v>753.991733276989</v>
       </c>
       <c r="V24" t="n">
-        <v>747.0528889596548</v>
+        <v>563.5897804292645</v>
       </c>
       <c r="W24" t="n">
-        <v>747.0528889596548</v>
+        <v>373.18782758154</v>
       </c>
       <c r="X24" t="n">
-        <v>747.0528889596548</v>
+        <v>354.3958038314431</v>
       </c>
       <c r="Y24" t="n">
-        <v>747.0528889596548</v>
+        <v>354.3958038314431</v>
       </c>
     </row>
     <row r="25">
@@ -6203,13 +6203,13 @@
         <v>1020.89842248961</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7966579874101</v>
+        <v>882.7966579874105</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2538204942522</v>
+        <v>757.2538204942525</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6637583350247</v>
+        <v>597.663758335025</v>
       </c>
       <c r="F26" t="n">
         <v>406.0329511471332</v>
@@ -6218,28 +6218,28 @@
         <v>198.6052517141559</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71974859845024</v>
+        <v>63.71974859845027</v>
       </c>
       <c r="I26" t="n">
         <v>35.91669941514207</v>
       </c>
       <c r="J26" t="n">
-        <v>171.2527996589549</v>
+        <v>171.2527996589547</v>
       </c>
       <c r="K26" t="n">
-        <v>375.942782452878</v>
+        <v>375.9427824528777</v>
       </c>
       <c r="L26" t="n">
-        <v>634.013527952399</v>
+        <v>634.0135279523988</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2253300581076</v>
+        <v>926.2253300581071</v>
       </c>
       <c r="N26" t="n">
-        <v>1212.903126212561</v>
+        <v>1212.90312621256</v>
       </c>
       <c r="O26" t="n">
-        <v>1458.47366392399</v>
+        <v>1458.473663923989</v>
       </c>
       <c r="P26" t="n">
         <v>1654.882514315173</v>
@@ -6260,16 +6260,16 @@
         <v>1735.552985020826</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.073153621683</v>
+        <v>1627.073153621684</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.404756347172</v>
+        <v>1501.404756347173</v>
       </c>
       <c r="X26" t="n">
         <v>1353.629035366662</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.123159715703</v>
+        <v>1183.123159715704</v>
       </c>
     </row>
     <row r="27">
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>35.91669941514207</v>
+        <v>263.4067448267619</v>
       </c>
       <c r="C27" t="n">
-        <v>35.91669941514207</v>
+        <v>73.99447055972561</v>
       </c>
       <c r="D27" t="n">
-        <v>35.91669941514207</v>
+        <v>73.99447055972561</v>
       </c>
       <c r="E27" t="n">
         <v>35.91669941514207</v>
@@ -6330,25 +6330,25 @@
         <v>793.1206204512958</v>
       </c>
       <c r="S27" t="n">
-        <v>793.1206204512958</v>
+        <v>599.5945686129077</v>
       </c>
       <c r="T27" t="n">
-        <v>791.6194355204985</v>
+        <v>598.0933836821104</v>
       </c>
       <c r="U27" t="n">
-        <v>562.2613499382817</v>
+        <v>574.110233204446</v>
       </c>
       <c r="V27" t="n">
-        <v>319.1816318419157</v>
+        <v>331.0305151080801</v>
       </c>
       <c r="W27" t="n">
-        <v>49.78306257220702</v>
+        <v>277.2731079838269</v>
       </c>
       <c r="X27" t="n">
-        <v>45.91623033435889</v>
+        <v>273.4062757459787</v>
       </c>
       <c r="Y27" t="n">
-        <v>35.91669941514207</v>
+        <v>263.4067448267619</v>
       </c>
     </row>
     <row r="28">
@@ -6391,40 +6391,40 @@
         <v>35.91669941514207</v>
       </c>
       <c r="M28" t="n">
-        <v>180.7574272613007</v>
+        <v>222.3019056889985</v>
       </c>
       <c r="N28" t="n">
-        <v>180.7574272613007</v>
+        <v>222.3019056889985</v>
       </c>
       <c r="O28" t="n">
-        <v>180.7574272613007</v>
+        <v>222.3019056889985</v>
       </c>
       <c r="P28" t="n">
-        <v>180.7574272613007</v>
+        <v>222.3019056889985</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.1625141760094</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="R28" t="n">
-        <v>266.1625141760094</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9874698909795</v>
+        <v>243.9874698909796</v>
       </c>
       <c r="T28" t="n">
-        <v>233.6068558239875</v>
+        <v>233.6068558239876</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6757382032151</v>
+        <v>157.6757382032152</v>
       </c>
       <c r="V28" t="n">
-        <v>125.732036525994</v>
+        <v>125.7320365259941</v>
       </c>
       <c r="W28" t="n">
-        <v>48.13006019737341</v>
+        <v>48.13006019737347</v>
       </c>
       <c r="X28" t="n">
-        <v>39.61015627389708</v>
+        <v>39.6101562738971</v>
       </c>
       <c r="Y28" t="n">
         <v>35.91669941514207</v>
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1020.898422489612</v>
+        <v>1020.89842248961</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7966579874118</v>
+        <v>882.7966579874104</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2538204942539</v>
+        <v>757.2538204942525</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6637583350264</v>
+        <v>597.663758335025</v>
       </c>
       <c r="F29" t="n">
-        <v>406.032951147135</v>
+        <v>406.0329511471336</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6052517141577</v>
+        <v>198.6052517141562</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71974859845024</v>
+        <v>63.71974859845026</v>
       </c>
       <c r="I29" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2527996589554</v>
+        <v>171.2527996589552</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9427824528784</v>
+        <v>375.9427824528782</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0135279523995</v>
+        <v>634.0135279523993</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2253300581078</v>
+        <v>926.2253300581075</v>
       </c>
       <c r="N29" t="n">
         <v>1212.903126212561</v>
@@ -6491,10 +6491,10 @@
         <v>1781.660986883925</v>
       </c>
       <c r="T29" t="n">
-        <v>1772.589137514412</v>
+        <v>1772.589137514411</v>
       </c>
       <c r="U29" t="n">
-        <v>1735.552985020827</v>
+        <v>1735.552985020826</v>
       </c>
       <c r="V29" t="n">
         <v>1627.073153621684</v>
@@ -6503,10 +6503,10 @@
         <v>1501.404756347173</v>
       </c>
       <c r="X29" t="n">
-        <v>1353.629035366663</v>
+        <v>1353.629035366662</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.123159715705</v>
+        <v>1183.123159715704</v>
       </c>
     </row>
     <row r="30">
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>278.334196292181</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="C30" t="n">
-        <v>88.92192202514468</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="D30" t="n">
-        <v>88.92192202514468</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="E30" t="n">
-        <v>88.92192202514468</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="F30" t="n">
-        <v>88.92192202514468</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="G30" t="n">
-        <v>88.92192202514468</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="H30" t="n">
-        <v>88.92192202514468</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="I30" t="n">
-        <v>88.92192202514468</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J30" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="K30" t="n">
-        <v>73.88002543102249</v>
+        <v>73.88002543102247</v>
       </c>
       <c r="L30" t="n">
         <v>191.2129445593966</v>
@@ -6567,25 +6567,25 @@
         <v>793.1206204512958</v>
       </c>
       <c r="S30" t="n">
-        <v>793.1206204512958</v>
+        <v>599.5945686129077</v>
       </c>
       <c r="T30" t="n">
-        <v>791.6194355204985</v>
+        <v>549.1391911974256</v>
       </c>
       <c r="U30" t="n">
-        <v>589.037684669865</v>
+        <v>309.5148785743058</v>
       </c>
       <c r="V30" t="n">
-        <v>345.9579665734992</v>
+        <v>282.0763226233954</v>
       </c>
       <c r="W30" t="n">
-        <v>292.200559449246</v>
+        <v>228.3189154991422</v>
       </c>
       <c r="X30" t="n">
-        <v>288.3337272113978</v>
+        <v>224.452083261294</v>
       </c>
       <c r="Y30" t="n">
-        <v>278.334196292181</v>
+        <v>214.4525523420772</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71.16756695283692</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="C31" t="n">
-        <v>71.16756695283692</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="D31" t="n">
-        <v>71.16756695283692</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="E31" t="n">
-        <v>71.16756695283692</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="F31" t="n">
-        <v>71.16756695283692</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="G31" t="n">
-        <v>71.16756695283692</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="H31" t="n">
-        <v>71.16756695283692</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="I31" t="n">
-        <v>71.16756695283692</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J31" t="n">
-        <v>71.16756695283692</v>
+        <v>71.16756695283715</v>
       </c>
       <c r="K31" t="n">
-        <v>71.16756695283692</v>
+        <v>71.16756695283715</v>
       </c>
       <c r="L31" t="n">
-        <v>71.16756695283692</v>
+        <v>71.16756695283715</v>
       </c>
       <c r="M31" t="n">
-        <v>71.16756695283692</v>
+        <v>71.16756695283715</v>
       </c>
       <c r="N31" t="n">
-        <v>266.1625141760094</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="O31" t="n">
-        <v>266.1625141760094</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="P31" t="n">
-        <v>266.1625141760094</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.1625141760094</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="R31" t="n">
-        <v>266.1625141760094</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="S31" t="n">
-        <v>243.9874698909795</v>
+        <v>243.9874698909796</v>
       </c>
       <c r="T31" t="n">
-        <v>233.6068558239875</v>
+        <v>233.6068558239876</v>
       </c>
       <c r="U31" t="n">
         <v>157.6757382032152</v>
       </c>
       <c r="V31" t="n">
-        <v>125.732036525994</v>
+        <v>125.7320365259941</v>
       </c>
       <c r="W31" t="n">
-        <v>48.13006019737342</v>
+        <v>48.13006019737347</v>
       </c>
       <c r="X31" t="n">
-        <v>39.61015627389709</v>
+        <v>39.6101562738971</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514207</v>
       </c>
     </row>
     <row r="32">
@@ -6677,49 +6677,49 @@
         <v>1014.789988510278</v>
       </c>
       <c r="C32" t="n">
-        <v>877.5242945806683</v>
+        <v>877.5242945806682</v>
       </c>
       <c r="D32" t="n">
-        <v>752.8175276601008</v>
+        <v>752.8175276601004</v>
       </c>
       <c r="E32" t="n">
-        <v>594.0635360734634</v>
+        <v>594.0635360734631</v>
       </c>
       <c r="F32" t="n">
-        <v>403.2687994581617</v>
+        <v>403.2687994581618</v>
       </c>
       <c r="G32" t="n">
-        <v>196.6771705977744</v>
+        <v>196.6771705977754</v>
       </c>
       <c r="H32" t="n">
-        <v>62.62773805465909</v>
+        <v>62.62773805465899</v>
       </c>
       <c r="I32" t="n">
         <v>35.660759443941</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8162924559494</v>
+        <v>171.8162924559495</v>
       </c>
       <c r="K32" t="n">
-        <v>377.325708018068</v>
+        <v>377.3257080180681</v>
       </c>
       <c r="L32" t="n">
-        <v>616.2999327831722</v>
+        <v>636.2158862857848</v>
       </c>
       <c r="M32" t="n">
-        <v>909.3311676570761</v>
+        <v>929.2471211596887</v>
       </c>
       <c r="N32" t="n">
-        <v>1196.828396579725</v>
+        <v>1216.744350082338</v>
       </c>
       <c r="O32" t="n">
-        <v>1443.218367059349</v>
+        <v>1463.134320561962</v>
       </c>
       <c r="P32" t="n">
-        <v>1640.446650218728</v>
+        <v>1640.446650218727</v>
       </c>
       <c r="Q32" t="n">
-        <v>1763.801366338637</v>
+        <v>1763.801366338636</v>
       </c>
       <c r="R32" t="n">
         <v>1783.03797219705</v>
@@ -6728,16 +6728,16 @@
         <v>1769.700058896461</v>
       </c>
       <c r="T32" t="n">
-        <v>1761.464280099538</v>
+        <v>1761.464280099537</v>
       </c>
       <c r="U32" t="n">
         <v>1725.264198178543</v>
       </c>
       <c r="V32" t="n">
-        <v>1617.620437351991</v>
+        <v>1617.62043735199</v>
       </c>
       <c r="W32" t="n">
-        <v>1492.78811065007</v>
+        <v>1492.788110650069</v>
       </c>
       <c r="X32" t="n">
         <v>1345.848460242149</v>
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>35.660759443941</v>
+        <v>101.3605256638658</v>
       </c>
       <c r="C33" t="n">
-        <v>35.660759443941</v>
+        <v>101.3605256638658</v>
       </c>
       <c r="D33" t="n">
-        <v>35.660759443941</v>
+        <v>101.3605256638658</v>
       </c>
       <c r="E33" t="n">
         <v>35.660759443941</v>
@@ -6801,28 +6801,28 @@
         <v>785.9258361627604</v>
       </c>
       <c r="R33" t="n">
-        <v>785.9258361627604</v>
+        <v>649.8452293051063</v>
       </c>
       <c r="S33" t="n">
-        <v>785.9258361627604</v>
+        <v>649.8452293051063</v>
       </c>
       <c r="T33" t="n">
-        <v>785.2607218045532</v>
+        <v>649.1801149468992</v>
       </c>
       <c r="U33" t="n">
-        <v>560.3332688219004</v>
+        <v>409.5558023237793</v>
       </c>
       <c r="V33" t="n">
-        <v>317.2535507255345</v>
+        <v>382.9533169454591</v>
       </c>
       <c r="W33" t="n">
-        <v>47.85498145582579</v>
+        <v>113.5547476757504</v>
       </c>
       <c r="X33" t="n">
-        <v>44.82421979056775</v>
+        <v>110.5239860104924</v>
       </c>
       <c r="Y33" t="n">
-        <v>35.660759443941</v>
+        <v>101.3605256638658</v>
       </c>
     </row>
     <row r="34">
@@ -6856,49 +6856,49 @@
         <v>35.660759443941</v>
       </c>
       <c r="J34" t="n">
-        <v>128.7928837238176</v>
+        <v>35.660759443941</v>
       </c>
       <c r="K34" t="n">
-        <v>260.0540801966778</v>
+        <v>35.660759443941</v>
       </c>
       <c r="L34" t="n">
-        <v>260.0540801966778</v>
+        <v>35.660759443941</v>
       </c>
       <c r="M34" t="n">
-        <v>260.0540801966778</v>
+        <v>35.660759443941</v>
       </c>
       <c r="N34" t="n">
-        <v>260.0540801966778</v>
+        <v>84.98883956751959</v>
       </c>
       <c r="O34" t="n">
-        <v>260.0540801966778</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="P34" t="n">
-        <v>260.0540801966778</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="Q34" t="n">
-        <v>260.0540801966778</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="R34" t="n">
-        <v>260.0540801966778</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="S34" t="n">
-        <v>238.7151064842379</v>
+        <v>238.7151064842374</v>
       </c>
       <c r="T34" t="n">
-        <v>229.170562989836</v>
+        <v>229.1705629898356</v>
       </c>
       <c r="U34" t="n">
-        <v>154.0755159416537</v>
+        <v>154.0755159416534</v>
       </c>
       <c r="V34" t="n">
-        <v>122.9678848370227</v>
+        <v>122.9678848370224</v>
       </c>
       <c r="W34" t="n">
-        <v>46.20197908099217</v>
+        <v>46.201979080992</v>
       </c>
       <c r="X34" t="n">
-        <v>38.51814573010593</v>
+        <v>38.51814573010584</v>
       </c>
       <c r="Y34" t="n">
         <v>35.660759443941</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0190675361097</v>
+        <v>623.0190675361092</v>
       </c>
       <c r="C35" t="n">
-        <v>544.083381551352</v>
+        <v>544.0833815513515</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7066225756364</v>
+        <v>477.7066225756359</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2826389338511</v>
+        <v>377.2826389338506</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8179102634022</v>
+        <v>244.8179102634017</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55628934786678</v>
+        <v>96.55628934786677</v>
       </c>
       <c r="H35" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I35" t="n">
-        <v>51.57576979998706</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J35" t="n">
-        <v>244.900543598745</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="K35" t="n">
-        <v>244.900543598745</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="L35" t="n">
-        <v>291.6213860795052</v>
+        <v>278.6930660259306</v>
       </c>
       <c r="M35" t="n">
-        <v>372.4832851664526</v>
+        <v>359.554965112878</v>
       </c>
       <c r="N35" t="n">
-        <v>447.811178302145</v>
+        <v>554.3657253092429</v>
       </c>
       <c r="O35" t="n">
-        <v>670.0297874835837</v>
+        <v>812.2219265855713</v>
       </c>
       <c r="P35" t="n">
-        <v>670.0297874835837</v>
+        <v>812.2219265855713</v>
       </c>
       <c r="Q35" t="n">
-        <v>850.5537443902421</v>
+        <v>992.7458834922296</v>
       </c>
       <c r="R35" t="n">
-        <v>926.959591035405</v>
+        <v>992.7458834922296</v>
       </c>
       <c r="S35" t="n">
-        <v>971.0563429962473</v>
+        <v>992.7458834922296</v>
       </c>
       <c r="T35" t="n">
-        <v>1020.153696984132</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="U35" t="n">
         <v>1041.843237480115</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5294845984142</v>
+        <v>992.5294845984138</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0271658413453</v>
+        <v>926.0271658413449</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4175233782772</v>
+        <v>837.4175233782768</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0777262447608</v>
+        <v>726.0777262447604</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>597.597681744195</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="C36" t="n">
-        <v>408.1854074771587</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="D36" t="n">
-        <v>247.4052912381904</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="E36" t="n">
-        <v>73.8420873596049</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="F36" t="n">
-        <v>73.8420873596049</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="G36" t="n">
-        <v>73.8420873596049</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="H36" t="n">
-        <v>73.8420873596049</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I36" t="n">
-        <v>73.8420873596049</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J36" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="K36" t="n">
-        <v>58.80019076548271</v>
+        <v>58.8001907654827</v>
       </c>
       <c r="L36" t="n">
-        <v>176.1331098938569</v>
+        <v>176.1331098938568</v>
       </c>
       <c r="M36" t="n">
         <v>357.8097564978623</v>
       </c>
       <c r="N36" t="n">
-        <v>562.7147329086216</v>
+        <v>562.7147329086215</v>
       </c>
       <c r="O36" t="n">
-        <v>694.4156725276561</v>
+        <v>694.4156725276559</v>
       </c>
       <c r="P36" t="n">
-        <v>778.040785785756</v>
+        <v>778.0407857857559</v>
       </c>
       <c r="Q36" t="n">
-        <v>776.1335346711301</v>
+        <v>778.0407857857559</v>
       </c>
       <c r="R36" t="n">
-        <v>776.1335346711301</v>
+        <v>778.0407857857559</v>
       </c>
       <c r="S36" t="n">
-        <v>776.1335346711301</v>
+        <v>778.0407857857559</v>
       </c>
       <c r="T36" t="n">
-        <v>776.1335346711301</v>
+        <v>705.544162409296</v>
       </c>
       <c r="U36" t="n">
-        <v>776.1335346711301</v>
+        <v>705.544162409296</v>
       </c>
       <c r="V36" t="n">
-        <v>776.1335346711301</v>
+        <v>462.46444431293</v>
       </c>
       <c r="W36" t="n">
-        <v>776.1335346711301</v>
+        <v>199.3727176765374</v>
       </c>
       <c r="X36" t="n">
-        <v>776.1335346711301</v>
+        <v>199.3727176765374</v>
       </c>
       <c r="Y36" t="n">
-        <v>776.1335346711301</v>
+        <v>199.3727176765374</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="C37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="D37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="E37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="F37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="G37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="H37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="K37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="L37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="M37" t="n">
-        <v>20.8368647496023</v>
+        <v>37.60190385293248</v>
       </c>
       <c r="N37" t="n">
-        <v>20.8368647496023</v>
+        <v>37.60190385293248</v>
       </c>
       <c r="O37" t="n">
-        <v>20.8368647496023</v>
+        <v>37.60190385293248</v>
       </c>
       <c r="P37" t="n">
-        <v>20.8368647496023</v>
+        <v>37.60190385293248</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03780166411087</v>
+        <v>37.60190385293248</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03780166411087</v>
+        <v>37.60190385293248</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03780166411087</v>
+        <v>37.60190385293248</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03780166411087</v>
+        <v>37.60190385293248</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27276256078069</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27276256078069</v>
+        <v>39.27276256078068</v>
       </c>
       <c r="W37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="X37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0190675361102</v>
+        <v>623.0190675361098</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0833815513525</v>
+        <v>544.0833815513521</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7066225756367</v>
+        <v>477.7066225756363</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2826389338514</v>
+        <v>377.282638933851</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8179102634022</v>
+        <v>244.8179102634017</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55628934786678</v>
+        <v>96.55628934786677</v>
       </c>
       <c r="H38" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I38" t="n">
         <v>51.57576979998706</v>
       </c>
       <c r="J38" t="n">
-        <v>244.900543598745</v>
+        <v>51.57576979998706</v>
       </c>
       <c r="K38" t="n">
-        <v>244.900543598745</v>
+        <v>51.57576979998706</v>
       </c>
       <c r="L38" t="n">
-        <v>291.6213860795052</v>
+        <v>309.4319710763154</v>
       </c>
       <c r="M38" t="n">
-        <v>372.4832851664526</v>
+        <v>567.2881723526439</v>
       </c>
       <c r="N38" t="n">
-        <v>447.811178302145</v>
+        <v>778.0012918929035</v>
       </c>
       <c r="O38" t="n">
-        <v>482.0318129948128</v>
+        <v>812.2219265855713</v>
       </c>
       <c r="P38" t="n">
-        <v>670.0297874835837</v>
+        <v>812.2219265855713</v>
       </c>
       <c r="Q38" t="n">
-        <v>850.5537443902421</v>
+        <v>992.7458834922296</v>
       </c>
       <c r="R38" t="n">
-        <v>926.959591035405</v>
+        <v>992.7458834922296</v>
       </c>
       <c r="S38" t="n">
-        <v>971.0563429962473</v>
+        <v>992.7458834922296</v>
       </c>
       <c r="T38" t="n">
-        <v>1020.153696984132</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="U38" t="n">
         <v>1041.843237480115</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5294845984147</v>
+        <v>992.5294845984142</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0271658413458</v>
+        <v>926.0271658413453</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4175233782777</v>
+        <v>837.4175233782772</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0777262447614</v>
+        <v>726.0777262447609</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>73.8420873596049</v>
+        <v>181.6169809885705</v>
       </c>
       <c r="C39" t="n">
-        <v>73.8420873596049</v>
+        <v>181.6169809885705</v>
       </c>
       <c r="D39" t="n">
-        <v>73.8420873596049</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="E39" t="n">
-        <v>73.8420873596049</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="F39" t="n">
-        <v>73.8420873596049</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="G39" t="n">
-        <v>73.8420873596049</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="H39" t="n">
-        <v>73.8420873596049</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I39" t="n">
-        <v>73.8420873596049</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J39" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="K39" t="n">
-        <v>58.80019076548271</v>
+        <v>58.8001907654827</v>
       </c>
       <c r="L39" t="n">
-        <v>176.1331098938569</v>
+        <v>176.1331098938568</v>
       </c>
       <c r="M39" t="n">
         <v>357.8097564978623</v>
       </c>
       <c r="N39" t="n">
-        <v>562.7147329086216</v>
+        <v>562.7147329086215</v>
       </c>
       <c r="O39" t="n">
-        <v>694.4156725276561</v>
+        <v>694.4156725276559</v>
       </c>
       <c r="P39" t="n">
-        <v>778.040785785756</v>
+        <v>778.0407857857559</v>
       </c>
       <c r="Q39" t="n">
-        <v>776.0541124623943</v>
+        <v>771.1019414684216</v>
       </c>
       <c r="R39" t="n">
-        <v>776.0541124623943</v>
+        <v>635.0213346107674</v>
       </c>
       <c r="S39" t="n">
-        <v>776.0541124623943</v>
+        <v>577.2951809917585</v>
       </c>
       <c r="T39" t="n">
-        <v>776.0541124623943</v>
+        <v>360.1528339155057</v>
       </c>
       <c r="U39" t="n">
-        <v>536.4297998392744</v>
+        <v>360.1528339155057</v>
       </c>
       <c r="V39" t="n">
-        <v>293.3500817429085</v>
+        <v>360.1528339155057</v>
       </c>
       <c r="W39" t="n">
-        <v>293.3500817429085</v>
+        <v>360.1528339155057</v>
       </c>
       <c r="X39" t="n">
-        <v>73.8420873596049</v>
+        <v>360.1528339155057</v>
       </c>
       <c r="Y39" t="n">
-        <v>73.8420873596049</v>
+        <v>360.1528339155057</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="C40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="D40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="E40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="F40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="G40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="H40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="K40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="L40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="M40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="N40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="O40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="P40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03780166411087</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27276256078069</v>
+        <v>39.27276256078068</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27276256078069</v>
+        <v>39.27276256078068</v>
       </c>
       <c r="W40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="X40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.8368647496023</v>
+        <v>20.83686474960229</v>
       </c>
     </row>
     <row r="41">
@@ -7415,22 +7415,22 @@
         <v>422.591595530862</v>
       </c>
       <c r="L41" t="n">
-        <v>707.9121095349435</v>
+        <v>469.3124380116221</v>
       </c>
       <c r="M41" t="n">
-        <v>788.7740086218909</v>
+        <v>788.7740086218907</v>
       </c>
       <c r="N41" t="n">
-        <v>864.1019017575833</v>
+        <v>1102.701573280905</v>
       </c>
       <c r="O41" t="n">
-        <v>1136.922207973572</v>
+        <v>1221.797426496037</v>
       </c>
       <c r="P41" t="n">
-        <v>1176.130484901259</v>
+        <v>1221.797426496037</v>
       </c>
       <c r="Q41" t="n">
-        <v>1325.915536757532</v>
+        <v>1371.582478352311</v>
       </c>
       <c r="R41" t="n">
         <v>1371.582478352311</v>
@@ -7464,7 +7464,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.06597548400537</v>
+        <v>170.111286737638</v>
       </c>
       <c r="C42" t="n">
         <v>28.06597548400537</v>
@@ -7509,31 +7509,31 @@
         <v>785.269896520159</v>
       </c>
       <c r="Q42" t="n">
-        <v>778.3310522028247</v>
+        <v>785.269896520159</v>
       </c>
       <c r="R42" t="n">
-        <v>778.3310522028247</v>
+        <v>785.269896520159</v>
       </c>
       <c r="S42" t="n">
-        <v>778.3310522028247</v>
+        <v>591.7438446817708</v>
       </c>
       <c r="T42" t="n">
-        <v>778.3310522028247</v>
+        <v>374.601497605518</v>
       </c>
       <c r="U42" t="n">
-        <v>760.0522572333837</v>
+        <v>374.601497605518</v>
       </c>
       <c r="V42" t="n">
-        <v>516.9725391370177</v>
+        <v>374.601497605518</v>
       </c>
       <c r="W42" t="n">
-        <v>247.573969867309</v>
+        <v>348.647139664573</v>
       </c>
       <c r="X42" t="n">
-        <v>28.06597548400537</v>
+        <v>348.647139664573</v>
       </c>
       <c r="Y42" t="n">
-        <v>28.06597548400537</v>
+        <v>348.647139664573</v>
       </c>
     </row>
     <row r="43">
@@ -7570,28 +7570,28 @@
         <v>28.06597548400537</v>
       </c>
       <c r="K43" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="L43" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="M43" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="N43" t="n">
-        <v>130.133623560695</v>
+        <v>124.6176159598925</v>
       </c>
       <c r="O43" t="n">
-        <v>130.133623560695</v>
+        <v>124.6176159598925</v>
       </c>
       <c r="P43" t="n">
-        <v>130.133623560695</v>
+        <v>124.6176159598925</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.133623560695</v>
+        <v>124.6176159598925</v>
       </c>
       <c r="R43" t="n">
-        <v>130.133623560695</v>
+        <v>124.6176159598925</v>
       </c>
       <c r="S43" t="n">
         <v>130.133623560695</v>
@@ -7649,31 +7649,31 @@
         <v>190.6518442323786</v>
       </c>
       <c r="K44" t="n">
-        <v>238.141253562805</v>
+        <v>190.6518442323786</v>
       </c>
       <c r="L44" t="n">
-        <v>523.4617675668865</v>
+        <v>451.4223911202186</v>
       </c>
       <c r="M44" t="n">
-        <v>842.9233381771551</v>
+        <v>770.8839617304873</v>
       </c>
       <c r="N44" t="n">
-        <v>918.2512313128475</v>
+        <v>1084.811526389501</v>
       </c>
       <c r="O44" t="n">
-        <v>952.4718660055153</v>
+        <v>1357.63183260549</v>
       </c>
       <c r="P44" t="n">
-        <v>1176.130484901259</v>
+        <v>1357.63183260549</v>
       </c>
       <c r="Q44" t="n">
-        <v>1325.915536757532</v>
+        <v>1357.63183260549</v>
       </c>
       <c r="R44" t="n">
-        <v>1371.582478352311</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="S44" t="n">
-        <v>1384.940325262768</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="T44" t="n">
         <v>1403.298774200268</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>188.4936917667613</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="C45" t="n">
-        <v>188.4936917667613</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="D45" t="n">
-        <v>188.4936917667613</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="E45" t="n">
-        <v>188.4936917667613</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="F45" t="n">
         <v>28.06597548400537</v>
@@ -7752,25 +7752,25 @@
         <v>785.269896520159</v>
       </c>
       <c r="S45" t="n">
-        <v>785.269896520159</v>
+        <v>591.7438446817708</v>
       </c>
       <c r="T45" t="n">
-        <v>697.152080427192</v>
+        <v>374.601497605518</v>
       </c>
       <c r="U45" t="n">
-        <v>457.5277678040722</v>
+        <v>374.601497605518</v>
       </c>
       <c r="V45" t="n">
-        <v>214.4480497077063</v>
+        <v>374.601497605518</v>
       </c>
       <c r="W45" t="n">
-        <v>188.4936917667613</v>
+        <v>105.2029283358094</v>
       </c>
       <c r="X45" t="n">
-        <v>188.4936917667613</v>
+        <v>105.2029283358094</v>
       </c>
       <c r="Y45" t="n">
-        <v>188.4936917667613</v>
+        <v>105.2029283358094</v>
       </c>
     </row>
     <row r="46">
@@ -7816,19 +7816,19 @@
         <v>28.06597548400537</v>
       </c>
       <c r="N46" t="n">
-        <v>28.06597548400537</v>
+        <v>124.6176159598925</v>
       </c>
       <c r="O46" t="n">
-        <v>28.06597548400537</v>
+        <v>124.6176159598925</v>
       </c>
       <c r="P46" t="n">
-        <v>130.133623560695</v>
+        <v>124.6176159598925</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.133623560695</v>
+        <v>124.6176159598925</v>
       </c>
       <c r="R46" t="n">
-        <v>130.133623560695</v>
+        <v>124.6176159598925</v>
       </c>
       <c r="S46" t="n">
         <v>130.133623560695</v>
@@ -8532,22 +8532,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>168.166555548718</v>
+        <v>171.3658051887314</v>
       </c>
       <c r="L9" t="n">
-        <v>169.0363433314465</v>
+        <v>172.1063303597423</v>
       </c>
       <c r="M9" t="n">
-        <v>176.4735084131581</v>
+        <v>176.6027710248758</v>
       </c>
       <c r="N9" t="n">
-        <v>163.4361383816801</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O9" t="n">
         <v>177.1666678622357</v>
       </c>
       <c r="P9" t="n">
-        <v>166.6480266854964</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -9006,7 +9006,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>171.373473584151</v>
+        <v>171.3734735841509</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
@@ -9021,7 +9021,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P15" t="n">
-        <v>206.3638740786792</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9243,7 +9243,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.373473584151</v>
+        <v>171.3734735841509</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
@@ -9492,7 +9492,7 @@
         <v>292.1370682466383</v>
       </c>
       <c r="O21" t="n">
-        <v>255.2227828913206</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P21" t="n">
         <v>206.3638740786793</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.9389762247655</v>
+        <v>195.9389762247654</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6238954891595</v>
+        <v>159.6238954891594</v>
       </c>
       <c r="E11" t="n">
         <v>193.3306479085683</v>
       </c>
       <c r="F11" t="n">
-        <v>36.55305216769841</v>
+        <v>225.0509854869456</v>
       </c>
       <c r="G11" t="n">
-        <v>119.271127526902</v>
+        <v>240.6899088095807</v>
       </c>
       <c r="H11" t="n">
-        <v>168.8731344554827</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.86150506240821</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.7332812292989</v>
       </c>
       <c r="S11" t="n">
-        <v>49.36873040538035</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00227733958192</v>
+        <v>72.00227733958187</v>
       </c>
       <c r="V11" t="n">
-        <v>142.7315194560842</v>
+        <v>142.7315194560841</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7481996726991</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6344501416383</v>
+        <v>107.3380905871359</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.63936994613482</v>
+        <v>204.137303265382</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.441042905518259</v>
+        <v>195.9389762247654</v>
       </c>
       <c r="C14" t="n">
-        <v>172.057233228111</v>
+        <v>172.0572332281109</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6238954891595</v>
+        <v>159.6238954891594</v>
       </c>
       <c r="E14" t="n">
-        <v>4.832714589321085</v>
+        <v>113.0436216673904</v>
       </c>
       <c r="F14" t="n">
-        <v>36.55305216769841</v>
+        <v>225.0509854869456</v>
       </c>
       <c r="G14" t="n">
         <v>240.6899088095807</v>
       </c>
       <c r="H14" t="n">
-        <v>168.8731344554828</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>62.86150506240817</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>16.73328122929892</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.31761724675142</v>
+        <v>44.31761724675137</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00227733958192</v>
+        <v>72.00227733958187</v>
       </c>
       <c r="V14" t="n">
-        <v>142.7315194560842</v>
+        <v>142.7315194560841</v>
       </c>
       <c r="W14" t="n">
-        <v>159.7481996726991</v>
+        <v>159.748199672699</v>
       </c>
       <c r="X14" t="n">
-        <v>181.6344501416383</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>104.2103352324686</v>
+        <v>15.63936994613476</v>
       </c>
     </row>
     <row r="15">
@@ -26314,46 +26314,46 @@
         <v>88193.19951764597</v>
       </c>
       <c r="C2" t="n">
-        <v>88193.19951764596</v>
+        <v>88193.19951764593</v>
       </c>
       <c r="D2" t="n">
         <v>88244.13157191494</v>
       </c>
       <c r="E2" t="n">
-        <v>75973.54287491339</v>
+        <v>75973.54287491344</v>
       </c>
       <c r="F2" t="n">
-        <v>75973.54287491334</v>
+        <v>75973.5428749134</v>
       </c>
       <c r="G2" t="n">
-        <v>88371.8548858537</v>
+        <v>88371.85488585365</v>
       </c>
       <c r="H2" t="n">
         <v>88371.85488585368</v>
       </c>
       <c r="I2" t="n">
-        <v>88371.85488585368</v>
+        <v>88371.85488585365</v>
       </c>
       <c r="J2" t="n">
-        <v>88371.85488585368</v>
+        <v>88371.8548858537</v>
       </c>
       <c r="K2" t="n">
-        <v>88371.85488585371</v>
+        <v>88371.85488585373</v>
       </c>
       <c r="L2" t="n">
-        <v>88371.85488585362</v>
+        <v>88371.85488585377</v>
       </c>
       <c r="M2" t="n">
-        <v>88371.85488585359</v>
+        <v>88371.85488585358</v>
       </c>
       <c r="N2" t="n">
         <v>88371.85488585358</v>
       </c>
       <c r="O2" t="n">
+        <v>88371.85488585371</v>
+      </c>
+      <c r="P2" t="n">
         <v>88371.85488585368</v>
-      </c>
-      <c r="P2" t="n">
-        <v>88371.85488585367</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95439.52541913331</v>
+        <v>95439.52541913322</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>96101.69331262466</v>
       </c>
       <c r="M3" t="n">
-        <v>46197.36629232282</v>
+        <v>46197.3662923228</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72254.91485924373</v>
+        <v>72254.91485924381</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>419657.1292804553</v>
       </c>
       <c r="D4" t="n">
-        <v>419547.2774058438</v>
+        <v>419547.2774058439</v>
       </c>
       <c r="E4" t="n">
         <v>307823.2566717783</v>
@@ -26439,13 +26439,13 @@
         <v>378431.1247150002</v>
       </c>
       <c r="J4" t="n">
-        <v>379258.4930688672</v>
+        <v>379258.4930688671</v>
       </c>
       <c r="K4" t="n">
         <v>379258.4930688671</v>
       </c>
       <c r="L4" t="n">
-        <v>379243.7031014886</v>
+        <v>379243.7031014885</v>
       </c>
       <c r="M4" t="n">
         <v>378433.7657281701</v>
@@ -26476,13 +26476,13 @@
         <v>33822.11437811282</v>
       </c>
       <c r="E5" t="n">
-        <v>28642.95693774779</v>
+        <v>28642.9569377478</v>
       </c>
       <c r="F5" t="n">
-        <v>28642.95693774779</v>
+        <v>28642.9569377478</v>
       </c>
       <c r="G5" t="n">
-        <v>38672.33876582419</v>
+        <v>38672.33876582418</v>
       </c>
       <c r="H5" t="n">
         <v>38672.33876582418</v>
@@ -26494,16 +26494,16 @@
         <v>47449.67722016351</v>
       </c>
       <c r="K5" t="n">
-        <v>47449.67722016352</v>
+        <v>47449.67722016351</v>
       </c>
       <c r="L5" t="n">
         <v>47324.7475828481</v>
       </c>
       <c r="M5" t="n">
-        <v>40913.29559868731</v>
+        <v>40913.2955986873</v>
       </c>
       <c r="N5" t="n">
-        <v>40913.29559868731</v>
+        <v>40913.2955986873</v>
       </c>
       <c r="O5" t="n">
         <v>43797.12782887324</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-365091.5297628093</v>
+        <v>-365095.9961470145</v>
       </c>
       <c r="C6" t="n">
-        <v>-365091.5297628093</v>
+        <v>-365095.9961470145</v>
       </c>
       <c r="D6" t="n">
-        <v>-366119.0431277191</v>
+        <v>-366122.2362105676</v>
       </c>
       <c r="E6" t="n">
-        <v>-539618.785913327</v>
+        <v>-539928.7437136006</v>
       </c>
       <c r="F6" t="n">
-        <v>-260492.6707346127</v>
+        <v>-260802.6285348862</v>
       </c>
       <c r="G6" t="n">
-        <v>-424171.134014104</v>
+        <v>-424171.1340141039</v>
       </c>
       <c r="H6" t="n">
         <v>-328731.6085949707</v>
@@ -26549,7 +26549,7 @@
         <v>-338336.3154031769</v>
       </c>
       <c r="L6" t="n">
-        <v>-434298.2891111078</v>
+        <v>-434298.2891111075</v>
       </c>
       <c r="M6" t="n">
         <v>-377172.5727333266</v>
@@ -26561,7 +26561,7 @@
         <v>-406501.016194151</v>
       </c>
       <c r="P6" t="n">
-        <v>-334246.1013349073</v>
+        <v>-334246.1013349072</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="G2" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="H2" t="n">
         <v>297.4476709269844</v>
@@ -26707,13 +26707,13 @@
         <v>297.4476709269844</v>
       </c>
       <c r="J2" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="K2" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="L2" t="n">
-        <v>214.3124603908651</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="M2" t="n">
         <v>272.0591682562687</v>
@@ -26814,16 +26814,16 @@
         <v>448.9587426892759</v>
       </c>
       <c r="K4" t="n">
-        <v>448.958742689276</v>
+        <v>448.9587426892759</v>
       </c>
       <c r="L4" t="n">
-        <v>445.7594930492625</v>
+        <v>445.7594930492624</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4608093700288</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4608093700288</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="O4" t="n">
         <v>350.8246935500671</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119.2994067739166</v>
+        <v>119.2994067739165</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.18534375008437</v>
+        <v>94.1853437500844</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>120.1271166407808</v>
       </c>
       <c r="M2" t="n">
-        <v>57.74670786540352</v>
+        <v>57.74670786540349</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13594470929166</v>
+        <v>63.13594470929172</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.36388418003833</v>
+        <v>90.36388418003844</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.2994067739166</v>
+        <v>119.2994067739165</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.18534375008437</v>
+        <v>94.1853437500844</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27874,7 +27874,7 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J8" t="n">
-        <v>111.4313123442445</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K8" t="n">
         <v>58.46339092876153</v>
@@ -27913,7 +27913,7 @@
         <v>320.879783609152</v>
       </c>
       <c r="W8" t="n">
-        <v>337.8964638257669</v>
+        <v>338.0263792789579</v>
       </c>
       <c r="X8" t="n">
         <v>359.7827142947061</v>
@@ -27932,10 +27932,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C9" t="n">
-        <v>184.3189018843524</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D9" t="n">
-        <v>159.1723150765785</v>
+        <v>156.3544159936547</v>
       </c>
       <c r="E9" t="n">
         <v>171.8275718397997</v>
@@ -27977,7 +27977,7 @@
         <v>31.44843229210258</v>
       </c>
       <c r="R9" t="n">
-        <v>145.4130537153763</v>
+        <v>145.0317031582867</v>
       </c>
       <c r="S9" t="n">
         <v>195.63287444794</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="C11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="E11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="G11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="H11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="I11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="J11" t="n">
-        <v>178.1482641530678</v>
+        <v>76.78161896459402</v>
       </c>
       <c r="K11" t="n">
-        <v>178.1482641530678</v>
+        <v>6.727192146300908</v>
       </c>
       <c r="L11" t="n">
         <v>141.3051631366612</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>106.8192473728358</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>112.4091523741034</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>146.3155575359768</v>
       </c>
       <c r="P11" t="n">
-        <v>19.41168532311809</v>
+        <v>15.0919723510887</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.1482641530678</v>
+        <v>89.71173703742193</v>
       </c>
       <c r="R11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="S11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="12">
@@ -28169,7 +28169,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28181,7 +28181,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>5.794385047782981</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H12" t="n">
         <v>125.7355245857741</v>
@@ -28190,7 +28190,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7198007890776</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>3.092858000757068</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U12" t="n">
-        <v>178.1482641530678</v>
+        <v>48.73013617764138</v>
       </c>
       <c r="V12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.1482641530678</v>
+        <v>71.80539695451444</v>
       </c>
     </row>
     <row r="13">
@@ -28251,16 +28251,16 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7007749271525</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="H13" t="n">
         <v>165.8243976546666</v>
@@ -28269,52 +28269,52 @@
         <v>164.852968067965</v>
       </c>
       <c r="J13" t="n">
-        <v>178.1482641530678</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K13" t="n">
-        <v>178.1482641530678</v>
+        <v>67.02998013918996</v>
       </c>
       <c r="L13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="M13" t="n">
         <v>25.21686539889342</v>
       </c>
       <c r="N13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="O13" t="n">
-        <v>37.47888399777676</v>
+        <v>71.56071228480154</v>
       </c>
       <c r="P13" t="n">
-        <v>92.57137279635285</v>
+        <v>58.47859890024885</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.2169859636892</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="R13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="S13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="C14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="E14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="G14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="H14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="I14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="J14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="K14" t="n">
-        <v>178.1482641530678</v>
+        <v>6.727192146300908</v>
       </c>
       <c r="L14" t="n">
-        <v>141.3051631366612</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>106.8192473728358</v>
       </c>
       <c r="N14" t="n">
-        <v>4.319712972029365</v>
+        <v>56.29506509273567</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>153.9316356498858</v>
       </c>
       <c r="P14" t="n">
         <v>15.0919723510887</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="R14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="S14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="15">
@@ -28406,13 +28406,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
         <v>158.8234391199283</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S15" t="n">
-        <v>114.214840818888</v>
+        <v>3.092858000757076</v>
       </c>
       <c r="T15" t="n">
-        <v>178.1482641530678</v>
+        <v>101.850695025073</v>
       </c>
       <c r="U15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V15" t="n">
-        <v>178.1482641530678</v>
+        <v>52.15098759615501</v>
       </c>
       <c r="W15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="16">
@@ -28494,7 +28494,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="G16" t="n">
         <v>168.7007749271525</v>
@@ -28509,49 +28509,49 @@
         <v>120.2396075829089</v>
       </c>
       <c r="K16" t="n">
-        <v>67.02998013918996</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="L16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="M16" t="n">
         <v>25.21686539889342</v>
       </c>
       <c r="N16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="O16" t="n">
-        <v>69.9976550357199</v>
+        <v>37.47888399777676</v>
       </c>
       <c r="P16" t="n">
-        <v>178.1482641530678</v>
+        <v>111.2586474318899</v>
       </c>
       <c r="Q16" t="n">
-        <v>178.1482641530678</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="S16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="17">
@@ -28561,40 +28561,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="C17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="D17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="E17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="F17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="G17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="H17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="I17" t="n">
-        <v>297.4476709269845</v>
+        <v>241.009769215476</v>
       </c>
       <c r="J17" t="n">
-        <v>232.4171167980089</v>
+        <v>265.2795522838413</v>
       </c>
       <c r="K17" t="n">
-        <v>6.727192146300908</v>
+        <v>148.3284555052588</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>106.8192473728358</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>89.71173703742193</v>
       </c>
       <c r="R17" t="n">
-        <v>297.4476709269845</v>
+        <v>194.8815453823668</v>
       </c>
       <c r="S17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="T17" t="n">
-        <v>297.4476709269845</v>
+        <v>222.4658813998192</v>
       </c>
       <c r="U17" t="n">
-        <v>297.4476709269845</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="W17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="X17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="Y17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
     </row>
     <row r="18">
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -28649,10 +28649,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
         <v>148.7446044746268</v>
@@ -28664,7 +28664,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J18" t="n">
-        <v>15.87204764032767</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,19 +28685,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.869455874161009</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7198007890776</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>191.5907913200043</v>
+        <v>3.092858000757076</v>
       </c>
       <c r="T18" t="n">
-        <v>214.9709236054903</v>
+        <v>26.47299028624303</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2280694968886</v>
+        <v>211.8085646976529</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -28819,16 +28819,16 @@
         <v>297.4476709269844</v>
       </c>
       <c r="I20" t="n">
-        <v>297.4476709269844</v>
+        <v>241.009769215476</v>
       </c>
       <c r="J20" t="n">
-        <v>232.417116798009</v>
+        <v>265.2795522838413</v>
       </c>
       <c r="K20" t="n">
-        <v>6.727192146300908</v>
+        <v>195.2251254655482</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>129.8532537810827</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -28846,16 +28846,16 @@
         <v>89.71173703742193</v>
       </c>
       <c r="R20" t="n">
-        <v>297.4476709269844</v>
+        <v>194.8815453823668</v>
       </c>
       <c r="S20" t="n">
-        <v>297.4476709269844</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T20" t="n">
-        <v>297.4476709269844</v>
+        <v>222.4658813998192</v>
       </c>
       <c r="U20" t="n">
-        <v>297.4476709269844</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V20" t="n">
         <v>297.4476709269844</v>
@@ -28877,19 +28877,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
         <v>148.7446044746268</v>
@@ -28901,7 +28901,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,10 +28922,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R21" t="n">
-        <v>134.7198007890776</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>191.5907913200043</v>
@@ -28934,16 +28934,16 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2280694968886</v>
+        <v>48.73013617764138</v>
       </c>
       <c r="V21" t="n">
-        <v>104.2900733065539</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>78.20665025776435</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>28.81498112022336</v>
+        <v>144.930678396705</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -29056,22 +29056,22 @@
         <v>297.4476709269844</v>
       </c>
       <c r="I23" t="n">
-        <v>297.4476709269844</v>
+        <v>241.009769215476</v>
       </c>
       <c r="J23" t="n">
-        <v>158.1011829467714</v>
+        <v>265.2795522838413</v>
       </c>
       <c r="K23" t="n">
-        <v>6.727192146300908</v>
+        <v>108.7914265828045</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>141.3051631366612</v>
       </c>
       <c r="M23" t="n">
-        <v>106.8192473728358</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>112.4091523741034</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -29083,16 +29083,16 @@
         <v>89.71173703742193</v>
       </c>
       <c r="R23" t="n">
-        <v>297.4476709269844</v>
+        <v>194.8815453823668</v>
       </c>
       <c r="S23" t="n">
         <v>227.5169945584482</v>
       </c>
       <c r="T23" t="n">
-        <v>222.4658813998192</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="U23" t="n">
-        <v>297.4476709269844</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V23" t="n">
         <v>297.4476709269844</v>
@@ -29117,16 +29117,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>129.4386482071644</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>148.7446044746268</v>
@@ -29159,7 +29159,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R24" t="n">
         <v>134.7198007890776</v>
@@ -29174,13 +29174,13 @@
         <v>237.2280694968886</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>52.15098759615501</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>78.20665025776435</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>198.7088109268747</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="C26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="D26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="E26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="F26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="G26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="H26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="I26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="J26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="K26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="L26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="M26" t="n">
-        <v>213.4847505240012</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="N26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="O26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="P26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="R26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="S26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="T26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="V26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="27">
@@ -29354,13 +29354,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>134.130578406662</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
@@ -29402,25 +29402,25 @@
         <v>134.7198007890776</v>
       </c>
       <c r="S27" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U27" t="n">
-        <v>10.16356477049393</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X27" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y27" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="28">
@@ -29463,7 +29463,7 @@
         <v>32.15181624817885</v>
       </c>
       <c r="M28" t="n">
-        <v>171.5206309000638</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="N28" t="n">
         <v>16.52015736928131</v>
@@ -29475,31 +29475,31 @@
         <v>58.47859890024885</v>
       </c>
       <c r="Q28" t="n">
-        <v>213.484750524001</v>
+        <v>171.520630900064</v>
       </c>
       <c r="R28" t="n">
         <v>203.4299611556341</v>
       </c>
       <c r="S28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="T28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="V28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="C29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="D29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="E29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="F29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="G29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="H29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="I29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="J29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="K29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="L29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="M29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="N29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="O29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="P29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Q29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="R29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="S29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="T29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="V29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="30">
@@ -29588,10 +29588,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -29612,7 +29612,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29639,25 +29639,25 @@
         <v>134.7198007890776</v>
       </c>
       <c r="S30" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>213.484750524001</v>
+        <v>165.020099964163</v>
       </c>
       <c r="U30" t="n">
-        <v>36.67213615476146</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W30" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X30" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y30" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="31">
@@ -29667,7 +29667,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>213.2238575717305</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
         <v>166.4571809719723</v>
@@ -29691,7 +29691,7 @@
         <v>164.852968067965</v>
       </c>
       <c r="J31" t="n">
-        <v>120.2396075829089</v>
+        <v>155.8465444896717</v>
       </c>
       <c r="K31" t="n">
         <v>67.02998013918996</v>
@@ -29703,7 +29703,7 @@
         <v>25.21686539889342</v>
       </c>
       <c r="N31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="O31" t="n">
         <v>37.47888399777676</v>
@@ -29718,25 +29718,25 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="T31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="V31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>214.3124603908651</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="C32" t="n">
-        <v>214.3124603908651</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="D32" t="n">
-        <v>214.3124603908651</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="E32" t="n">
-        <v>214.3124603908651</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="F32" t="n">
-        <v>214.3124603908651</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="G32" t="n">
-        <v>214.3124603908651</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="H32" t="n">
-        <v>214.3124603908651</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="I32" t="n">
-        <v>214.3124603908651</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="J32" t="n">
-        <v>214.3124603908651</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="K32" t="n">
-        <v>214.3124603908651</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="L32" t="n">
-        <v>194.1953356407515</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="M32" t="n">
-        <v>214.3124603908651</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="N32" t="n">
-        <v>214.3124603908651</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="O32" t="n">
-        <v>214.3124603908651</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="P32" t="n">
-        <v>214.3124603908651</v>
+        <v>194.1953356407502</v>
       </c>
       <c r="Q32" t="n">
-        <v>214.3124603908651</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="R32" t="n">
-        <v>214.3124603908651</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="S32" t="n">
-        <v>214.3124603908651</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="T32" t="n">
-        <v>214.3124603908651</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="U32" t="n">
-        <v>214.3124603908651</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="V32" t="n">
-        <v>214.3124603908651</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="W32" t="n">
-        <v>214.3124603908651</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="X32" t="n">
-        <v>214.3124603908651</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="Y32" t="n">
-        <v>214.3124603908651</v>
+        <v>214.3124603908652</v>
       </c>
     </row>
     <row r="33">
@@ -29834,7 +29834,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>106.7848032820741</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
@@ -29873,28 +29873,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>134.7198007890776</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T33" t="n">
-        <v>214.3124603908651</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="U33" t="n">
-        <v>14.54989104406241</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>214.3124603908651</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="Y33" t="n">
-        <v>214.3124603908651</v>
+        <v>214.3124603908652</v>
       </c>
     </row>
     <row r="34">
@@ -29928,10 +29928,10 @@
         <v>164.852968067965</v>
       </c>
       <c r="J34" t="n">
-        <v>214.3124603908651</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K34" t="n">
-        <v>199.6170472834932</v>
+        <v>67.02998013918996</v>
       </c>
       <c r="L34" t="n">
         <v>32.15181624817885</v>
@@ -29940,10 +29940,10 @@
         <v>25.21686539889342</v>
       </c>
       <c r="N34" t="n">
-        <v>16.52015736928131</v>
+        <v>66.3465009284516</v>
       </c>
       <c r="O34" t="n">
-        <v>37.47888399777676</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="P34" t="n">
         <v>58.47859890024885</v>
@@ -29955,25 +29955,25 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S34" t="n">
-        <v>214.3124603908651</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="T34" t="n">
-        <v>214.3124603908651</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="U34" t="n">
-        <v>214.3124603908651</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="V34" t="n">
-        <v>214.3124603908651</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="W34" t="n">
-        <v>214.3124603908651</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="X34" t="n">
-        <v>214.3124603908651</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="Y34" t="n">
-        <v>214.3124603908651</v>
+        <v>214.3124603908652</v>
       </c>
     </row>
     <row r="35">
@@ -30004,25 +30004,25 @@
         <v>272.0591682562687</v>
       </c>
       <c r="I35" t="n">
-        <v>272.0591682562687</v>
+        <v>241.009769215476</v>
       </c>
       <c r="J35" t="n">
-        <v>272.0591682562687</v>
+        <v>76.78161896459402</v>
       </c>
       <c r="K35" t="n">
         <v>6.727192146300908</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>213.2680391874426</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>120.6897647077499</v>
       </c>
       <c r="O35" t="n">
-        <v>189.8969439280515</v>
+        <v>225.8945117006672</v>
       </c>
       <c r="P35" t="n">
         <v>15.0919723510887</v>
@@ -30031,16 +30031,16 @@
         <v>272.0591682562687</v>
       </c>
       <c r="R35" t="n">
-        <v>272.0591682562687</v>
+        <v>194.8815453823668</v>
       </c>
       <c r="S35" t="n">
-        <v>272.0591682562687</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T35" t="n">
         <v>272.0591682562687</v>
       </c>
       <c r="U35" t="n">
-        <v>272.0591682562687</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V35" t="n">
         <v>272.0591682562687</v>
@@ -30065,13 +30065,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
@@ -30086,7 +30086,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>4.98127727068129</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R36" t="n">
         <v>134.7198007890776</v>
@@ -30116,16 +30116,16 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9709236054903</v>
+        <v>143.1992664627949</v>
       </c>
       <c r="U36" t="n">
         <v>237.2280694968886</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>6.243774206982948</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -30174,7 +30174,7 @@
         <v>32.15181624817885</v>
       </c>
       <c r="M37" t="n">
-        <v>25.21686539889342</v>
+        <v>42.15124833155018</v>
       </c>
       <c r="N37" t="n">
         <v>16.52015736928131</v>
@@ -30186,7 +30186,7 @@
         <v>58.47859890024885</v>
       </c>
       <c r="Q37" t="n">
-        <v>162.7734878975363</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R37" t="n">
         <v>203.4299611556341</v>
@@ -30201,7 +30201,7 @@
         <v>272.0591682562687</v>
       </c>
       <c r="V37" t="n">
-        <v>245.1090151844499</v>
+        <v>263.7311341856402</v>
       </c>
       <c r="W37" t="n">
         <v>272.0591682562687</v>
@@ -30244,40 +30244,40 @@
         <v>272.0591682562687</v>
       </c>
       <c r="J38" t="n">
-        <v>272.0591682562687</v>
+        <v>76.78161896459402</v>
       </c>
       <c r="K38" t="n">
         <v>6.727192146300908</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>213.2680391874426</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>178.7821234236172</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>136.7527539440073</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>204.9889162791401</v>
+        <v>15.0919723510887</v>
       </c>
       <c r="Q38" t="n">
         <v>272.0591682562687</v>
       </c>
       <c r="R38" t="n">
-        <v>272.0591682562687</v>
+        <v>194.8815453823668</v>
       </c>
       <c r="S38" t="n">
-        <v>272.0591682562687</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T38" t="n">
         <v>272.0591682562687</v>
       </c>
       <c r="U38" t="n">
-        <v>272.0591682562687</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V38" t="n">
         <v>272.0591682562687</v>
@@ -30299,13 +30299,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
@@ -30323,7 +30323,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>52.47517038390257</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,28 +30344,28 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>4.902649284032884</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>134.7198007890776</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>191.5907913200043</v>
+        <v>134.4418992371854</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30420,7 +30420,7 @@
         <v>37.47888399777676</v>
       </c>
       <c r="P40" t="n">
-        <v>94.03510083409589</v>
+        <v>58.47859890024885</v>
       </c>
       <c r="Q40" t="n">
         <v>127.2169859636892</v>
@@ -30432,7 +30432,7 @@
         <v>235.4380443661805</v>
       </c>
       <c r="T40" t="n">
-        <v>223.761558450323</v>
+        <v>259.3180603841701</v>
       </c>
       <c r="U40" t="n">
         <v>272.0591682562687</v>
@@ -30487,25 +30487,25 @@
         <v>241.009769215476</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
         <v>241.009769215476</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="O41" t="n">
-        <v>241.009769215476</v>
+        <v>85.7325439620854</v>
       </c>
       <c r="P41" t="n">
-        <v>54.69629248006495</v>
+        <v>15.0919723510887</v>
       </c>
       <c r="Q41" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="R41" t="n">
-        <v>241.009769215476</v>
+        <v>194.8815453823668</v>
       </c>
       <c r="S41" t="n">
         <v>241.009769215476</v>
@@ -30536,10 +30536,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>46.89329338326968</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
@@ -30581,28 +30581,28 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R42" t="n">
         <v>134.7198007890776</v>
       </c>
       <c r="S42" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>219.132062477142</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30642,7 +30642,7 @@
         <v>120.2396075829089</v>
       </c>
       <c r="K43" t="n">
-        <v>170.1286145600886</v>
+        <v>67.02998013918996</v>
       </c>
       <c r="L43" t="n">
         <v>32.15181624817885</v>
@@ -30651,7 +30651,7 @@
         <v>25.21686539889342</v>
       </c>
       <c r="N43" t="n">
-        <v>16.52015736928131</v>
+        <v>114.0470669408844</v>
       </c>
       <c r="O43" t="n">
         <v>37.47888399777676</v>
@@ -30666,7 +30666,7 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S43" t="n">
-        <v>235.4380443661805</v>
+        <v>241.009769215476</v>
       </c>
       <c r="T43" t="n">
         <v>223.761558450323</v>
@@ -30721,34 +30721,34 @@
         <v>241.009769215476</v>
       </c>
       <c r="K44" t="n">
-        <v>54.69629248006496</v>
+        <v>6.727192146300908</v>
       </c>
       <c r="L44" t="n">
-        <v>241.009769215476</v>
+        <v>216.211822633414</v>
       </c>
       <c r="M44" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="P44" t="n">
-        <v>241.009769215476</v>
+        <v>15.0919723510887</v>
       </c>
       <c r="Q44" t="n">
-        <v>241.009769215476</v>
+        <v>89.71173703742193</v>
       </c>
       <c r="R44" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="S44" t="n">
-        <v>241.009769215476</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T44" t="n">
-        <v>241.009769215476</v>
+        <v>222.4658813998192</v>
       </c>
       <c r="U44" t="n">
         <v>241.009769215476</v>
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>100.3849110743798</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
@@ -30785,7 +30785,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>148.7446044746268</v>
@@ -30824,19 +30824,19 @@
         <v>134.7198007890776</v>
       </c>
       <c r="S45" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>127.7342856734529</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30888,13 +30888,13 @@
         <v>25.21686539889342</v>
       </c>
       <c r="N46" t="n">
-        <v>16.52015736928131</v>
+        <v>114.0470669408844</v>
       </c>
       <c r="O46" t="n">
         <v>37.47888399777676</v>
       </c>
       <c r="P46" t="n">
-        <v>161.5772333211474</v>
+        <v>58.47859890024885</v>
       </c>
       <c r="Q46" t="n">
         <v>127.2169859636892</v>
@@ -30903,7 +30903,7 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S46" t="n">
-        <v>235.4380443661805</v>
+        <v>241.009769215476</v>
       </c>
       <c r="T46" t="n">
         <v>223.761558450323</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1299154531910392</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35209,7 +35209,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>0.129915453191039</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>3.069987028295762</v>
       </c>
       <c r="M9" t="n">
-        <v>3.069987028295762</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="N9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>3.199249640013477</v>
       </c>
       <c r="P9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.3666451884738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>171.4210720067669</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>188.4979333192472</v>
       </c>
       <c r="M11" t="n">
-        <v>81.67868594641146</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="N11" t="n">
-        <v>76.08878094514388</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O11" t="n">
-        <v>34.56629766936143</v>
+        <v>180.8818552053382</v>
       </c>
       <c r="P11" t="n">
-        <v>4.319712972029389</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.4365271156459</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35547,16 +35547,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>32.96561390235718</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>36.47212294084289</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>39.22138193462123</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>9.447489225915417</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.90865657015888</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>111.1182840138779</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>145.996447904889</v>
@@ -35577,16 +35577,16 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>161.6281067837865</v>
+        <v>161.6281067837866</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>34.08182828702478</v>
       </c>
       <c r="P13" t="n">
-        <v>34.09277389610399</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>50.93127818937868</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.3666451884738</v>
+        <v>101.3666451884739</v>
       </c>
       <c r="K14" t="n">
-        <v>171.4210720067669</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
+        <v>47.19277018258605</v>
+      </c>
+      <c r="M14" t="n">
         <v>188.4979333192472</v>
       </c>
-      <c r="M14" t="n">
-        <v>81.67868594641146</v>
-      </c>
       <c r="N14" t="n">
-        <v>80.40849391717325</v>
+        <v>132.3838460378796</v>
       </c>
       <c r="O14" t="n">
-        <v>34.56629766936143</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.4365271156459</v>
+        <v>88.43652711564596</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.34679395543476</v>
+        <v>38.34679395543469</v>
       </c>
       <c r="L15" t="n">
         <v>118.5181001296709</v>
@@ -35741,7 +35741,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P15" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181812</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35790,7 +35790,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>39.22138193462123</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>111.1182840138779</v>
       </c>
       <c r="L16" t="n">
         <v>145.996447904889</v>
@@ -35814,16 +35814,16 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>161.6281067837865</v>
+        <v>161.6281067837866</v>
       </c>
       <c r="O16" t="n">
-        <v>32.51877103794315</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>119.669665252819</v>
+        <v>52.78004853164108</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.93127818937862</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,19 +35878,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.43790171150845</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>155.6354978334148</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>141.6012633589579</v>
       </c>
       <c r="L17" t="n">
         <v>47.19277018258605</v>
       </c>
       <c r="M17" t="n">
-        <v>81.67868594641146</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="N17" t="n">
         <v>76.08878094514388</v>
@@ -35905,16 +35905,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>102.5661255446177</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.9306763685363</v>
+        <v>69.93067636853624</v>
       </c>
       <c r="T17" t="n">
-        <v>74.98178952716522</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>47.29712943433473</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34679395543476</v>
+        <v>38.34679395543469</v>
       </c>
       <c r="L18" t="n">
         <v>118.5181001296709</v>
@@ -36115,16 +36115,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.43790171150839</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>155.635497833415</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="L20" t="n">
-        <v>47.19277018258605</v>
+        <v>177.0460239636687</v>
       </c>
       <c r="M20" t="n">
         <v>81.67868594641146</v>
@@ -36142,16 +36142,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>102.5661255446176</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.93067636853624</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>74.98178952716516</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>47.29712943433467</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36212,7 +36212,7 @@
         <v>188.4979333192472</v>
       </c>
       <c r="O21" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P21" t="n">
         <v>84.46981137181812</v>
@@ -36352,22 +36352,22 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.43790171150839</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>81.31956398217739</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>102.0642344365036</v>
       </c>
       <c r="L23" t="n">
-        <v>47.19277018258605</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="M23" t="n">
-        <v>188.4979333192472</v>
+        <v>81.67868594641146</v>
       </c>
       <c r="N23" t="n">
-        <v>188.4979333192472</v>
+        <v>76.08878094514388</v>
       </c>
       <c r="O23" t="n">
         <v>34.56629766936143</v>
@@ -36379,16 +36379,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>102.5661255446176</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>74.98178952716516</v>
       </c>
       <c r="U23" t="n">
-        <v>47.29712943433467</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>260.677520706587</v>
       </c>
       <c r="M26" t="n">
-        <v>295.1634364704127</v>
+        <v>295.1634364704124</v>
       </c>
       <c r="N26" t="n">
         <v>289.5735314691448</v>
@@ -36616,7 +36616,7 @@
         <v>123.773013486579</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60320514163415</v>
+        <v>18.60320514163411</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36759,7 +36759,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>146.3037655011704</v>
+        <v>188.2678851251075</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.26776456031175</v>
+        <v>44.30364493637481</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>123.773013486579</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60320514163413</v>
+        <v>18.60320514163411</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36963,7 +36963,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.60693690676246</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>35.60693690676271</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>196.9645931547197</v>
+        <v>196.9645931547196</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.5308414262711</v>
+        <v>137.5308414262712</v>
       </c>
       <c r="K32" t="n">
-        <v>207.5852682445642</v>
+        <v>207.5852682445643</v>
       </c>
       <c r="L32" t="n">
-        <v>241.3881058233376</v>
+        <v>261.5052305734513</v>
       </c>
       <c r="M32" t="n">
-        <v>295.9911463372766</v>
+        <v>295.9911463372767</v>
       </c>
       <c r="N32" t="n">
-        <v>290.401241336009</v>
+        <v>290.4012413360091</v>
       </c>
       <c r="O32" t="n">
-        <v>248.8787580602266</v>
+        <v>248.8787580602267</v>
       </c>
       <c r="P32" t="n">
-        <v>199.2204880397765</v>
+        <v>179.1033632896615</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.6007233534432</v>
+        <v>124.6007233534433</v>
       </c>
       <c r="R32" t="n">
-        <v>19.43091500849833</v>
+        <v>19.43091500849842</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>94.0728528079562</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>132.5870671443032</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -37236,10 +37236,10 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>49.8263435591703</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>176.8335763930884</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37300,25 +37300,25 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.04939904079269</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>195.2775492916747</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>47.19277018258605</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="M35" t="n">
         <v>81.67868594641146</v>
       </c>
       <c r="N35" t="n">
-        <v>76.08878094514388</v>
+        <v>196.7785456528938</v>
       </c>
       <c r="O35" t="n">
-        <v>224.4632415974129</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37327,16 +37327,16 @@
         <v>182.3474312188468</v>
       </c>
       <c r="R35" t="n">
-        <v>77.17762287390191</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>44.54217369782055</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>49.59328685644947</v>
       </c>
       <c r="U35" t="n">
-        <v>21.90862676361897</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>16.93438293265676</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.55650193384704</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37497,7 +37497,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>18.62211900119029</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -37540,40 +37540,40 @@
         <v>31.04939904079269</v>
       </c>
       <c r="J38" t="n">
-        <v>195.2775492916747</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>47.19277018258605</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="M38" t="n">
-        <v>81.67868594641146</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="N38" t="n">
-        <v>76.08878094514388</v>
+        <v>212.8415348891511</v>
       </c>
       <c r="O38" t="n">
         <v>34.56629766936143</v>
       </c>
       <c r="P38" t="n">
-        <v>189.8969439280514</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>182.3474312188468</v>
       </c>
       <c r="R38" t="n">
-        <v>77.17762287390191</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>44.54217369782055</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>49.59328685644947</v>
       </c>
       <c r="U38" t="n">
-        <v>21.90862676361897</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37716,19 +37716,19 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>35.55650193384704</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -37783,25 +37783,25 @@
         <v>234.2825770691751</v>
       </c>
       <c r="L41" t="n">
-        <v>288.2025393980621</v>
+        <v>47.19277018258605</v>
       </c>
       <c r="M41" t="n">
-        <v>81.67868594641146</v>
+        <v>322.6884551618875</v>
       </c>
       <c r="N41" t="n">
-        <v>76.08878094514388</v>
+        <v>317.0985501606199</v>
       </c>
       <c r="O41" t="n">
-        <v>275.5760668848375</v>
+        <v>120.2988416314468</v>
       </c>
       <c r="P41" t="n">
-        <v>39.60432012897625</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>151.2980321780541</v>
       </c>
       <c r="R41" t="n">
-        <v>46.12822383310923</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>13.49277465702787</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>103.0986344208986</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>97.52690957160313</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -37962,7 +37962,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>5.571724849295482</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -38017,34 +38017,34 @@
         <v>164.228150250882</v>
       </c>
       <c r="K44" t="n">
-        <v>47.96910033376405</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>288.2025393980621</v>
+        <v>263.404592816</v>
       </c>
       <c r="M44" t="n">
         <v>322.6884551618875</v>
       </c>
       <c r="N44" t="n">
-        <v>76.08878094514388</v>
+        <v>317.0985501606199</v>
       </c>
       <c r="O44" t="n">
-        <v>34.56629766936143</v>
+        <v>275.5760668848375</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9177968643874</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.2980321780541</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>46.12822383310923</v>
       </c>
       <c r="S44" t="n">
-        <v>13.49277465702787</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>18.54388781565679</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38184,13 +38184,13 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>97.52690957160313</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>103.0986344208986</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -38199,7 +38199,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>5.571724849295482</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
